--- a/data/timeshift.xlsx
+++ b/data/timeshift.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/z_erdos_exeter_ac_uk/Documents/ze213_backup/Angus/community evolution/timeshift/Ecology letters submission/github/antagonistic_coevolution/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="612" documentId="8_{EF154333-CDE9-4FB6-BB84-FAAD1C168679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C8253AC-3667-4A4D-BB3E-A89BA9C72E0B}"/>
+  <xr:revisionPtr revIDLastSave="634" documentId="8_{EF154333-CDE9-4FB6-BB84-FAAD1C168679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{344B51DE-A5F7-40FF-942E-B7582313457D}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{C6FE67FD-CB90-47CF-9148-EB40763419AB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C6FE67FD-CB90-47CF-9148-EB40763419AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="metadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$177</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="209">
   <si>
     <t>treatment</t>
   </si>
@@ -603,9 +603,6 @@
     <t>V_density</t>
   </si>
   <si>
-    <t>Shannon_diversity</t>
-  </si>
-  <si>
     <t>PaVa1</t>
   </si>
   <si>
@@ -633,7 +630,43 @@
     <t>productivity</t>
   </si>
   <si>
-    <t>evenness</t>
+    <t>individual replicate ID</t>
+  </si>
+  <si>
+    <t>treatment ID</t>
+  </si>
+  <si>
+    <t>evolutionary time of Pseudomonas</t>
+  </si>
+  <si>
+    <t>evolutionary time of Variovorax</t>
+  </si>
+  <si>
+    <t>replicate number</t>
+  </si>
+  <si>
+    <t>dilution factor, value in cell represents the exponent component of base 10</t>
+  </si>
+  <si>
+    <t>proportion of Variovorax</t>
+  </si>
+  <si>
+    <t>proportion of Pseudomonas</t>
+  </si>
+  <si>
+    <t>colony forming units (CFUs) of Pseudomonas</t>
+  </si>
+  <si>
+    <t>colony forming units (CFUs) of Variovorax</t>
+  </si>
+  <si>
+    <t>Pseudomonas density in CFU/ml</t>
+  </si>
+  <si>
+    <t>Variovorax density in CFU/ml</t>
+  </si>
+  <si>
+    <t>Combined total of Pseudomonas and Variovorax CFUs</t>
   </si>
 </sst>
 </file>
@@ -1032,11 +1065,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CBA5D8E-548F-4B4B-A4EE-3D120DC852AD}">
-  <dimension ref="A1:O177"/>
+  <dimension ref="A1:M177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,10 +1077,10 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1085,16 +1118,10 @@
         <v>186</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>137</v>
       </c>
@@ -1120,35 +1147,27 @@
         <v>111</v>
       </c>
       <c r="I2">
-        <f>(H2/(G2+H2))</f>
+        <f t="shared" ref="I2:I33" si="0">(H2/(G2+H2))</f>
         <v>0.9652173913043478</v>
       </c>
       <c r="J2">
-        <f>(G2/(G2+H2))</f>
+        <f t="shared" ref="J2:J33" si="1">(G2/(G2+H2))</f>
         <v>3.4782608695652174E-2</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K9" si="0">(G2*10^(F2))/0.035</f>
+        <f t="shared" ref="K2:K9" si="2">(G2*10^(F2))/0.035</f>
         <v>11428571.428571427</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L9" si="1">(H2*10^(F2))/0.035</f>
+        <f t="shared" ref="L2:L9" si="3">(H2*10^(F2))/0.035</f>
         <v>317142857.14285713</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M9" si="2">((I2*LN(I2))+(J2*LN(J2)))*-1</f>
-        <v>0.15099273888369658</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ref="N2:N9" si="3">M2/LN(2)</f>
-        <v>0.21783647559775121</v>
-      </c>
-      <c r="O2">
         <f>G2+H2</f>
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>138</v>
       </c>
@@ -1174,35 +1193,27 @@
         <v>38</v>
       </c>
       <c r="I3">
-        <f>(H3/(G3+H3))</f>
+        <f t="shared" si="0"/>
         <v>0.92682926829268297</v>
       </c>
       <c r="J3">
-        <f>(G3/(G3+H3))</f>
+        <f t="shared" si="1"/>
         <v>7.3170731707317069E-2</v>
       </c>
       <c r="K3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8571428.5714285709</v>
       </c>
       <c r="L3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>108571428.57142857</v>
       </c>
       <c r="M3">
-        <f t="shared" si="2"/>
-        <v>0.26176448290901538</v>
-      </c>
-      <c r="N3">
-        <f t="shared" si="3"/>
-        <v>0.3776463213737003</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O66" si="4">G3+H3</f>
+        <f t="shared" ref="M3:M66" si="4">G3+H3</f>
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -1228,35 +1239,27 @@
         <v>64</v>
       </c>
       <c r="I4">
-        <f>(H4/(G4+H4))</f>
+        <f t="shared" si="0"/>
         <v>0.90140845070422537</v>
       </c>
       <c r="J4">
-        <f>(G4/(G4+H4))</f>
+        <f t="shared" si="1"/>
         <v>9.8591549295774641E-2</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19999999.999999996</v>
       </c>
       <c r="L4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>182857142.85714284</v>
       </c>
       <c r="M4">
-        <f t="shared" si="2"/>
-        <v>0.32197722382432675</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="3"/>
-        <v>0.464514944090552</v>
-      </c>
-      <c r="O4">
         <f t="shared" si="4"/>
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>168</v>
       </c>
@@ -1282,35 +1285,27 @@
         <v>50</v>
       </c>
       <c r="I5">
-        <f>(H5/(G5+H5))</f>
+        <f t="shared" si="0"/>
         <v>0.8771929824561403</v>
       </c>
       <c r="J5">
-        <f>(G5/(G5+H5))</f>
+        <f t="shared" si="1"/>
         <v>0.12280701754385964</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19999999.999999996</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>142857142.85714284</v>
       </c>
       <c r="M5">
-        <f t="shared" si="2"/>
-        <v>0.37248071845219055</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="3"/>
-        <v>0.53737608533773351</v>
-      </c>
-      <c r="O5">
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
@@ -1336,35 +1331,27 @@
         <v>46</v>
       </c>
       <c r="I6">
-        <f>(H6/(G6+H6))</f>
+        <f t="shared" si="0"/>
         <v>0.85185185185185186</v>
       </c>
       <c r="J6">
-        <f>(G6/(G6+H6))</f>
+        <f t="shared" si="1"/>
         <v>0.14814814814814814</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22857142.857142854</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>131428571.42857142</v>
       </c>
       <c r="M6">
-        <f t="shared" si="2"/>
-        <v>0.41948336930618069</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="3"/>
-        <v>0.60518657663342046</v>
-      </c>
-      <c r="O6">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
@@ -1390,35 +1377,27 @@
         <v>53</v>
       </c>
       <c r="I7">
-        <f>(H7/(G7+H7))</f>
+        <f t="shared" si="0"/>
         <v>0.828125</v>
       </c>
       <c r="J7">
-        <f>(G7/(G7+H7))</f>
+        <f t="shared" si="1"/>
         <v>0.171875</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31428571.428571425</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>151428571.4285714</v>
       </c>
       <c r="M7">
-        <f t="shared" si="2"/>
-        <v>0.45884684243710105</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="3"/>
-        <v>0.66197606411156529</v>
-      </c>
-      <c r="O7">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>171</v>
       </c>
@@ -1444,35 +1423,27 @@
         <v>36</v>
       </c>
       <c r="I8">
-        <f>(H8/(G8+H8))</f>
+        <f t="shared" si="0"/>
         <v>0.81818181818181823</v>
       </c>
       <c r="J8">
-        <f>(G8/(G8+H8))</f>
+        <f t="shared" si="1"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22857142.857142854</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>102857142.85714285</v>
       </c>
       <c r="M8">
-        <f t="shared" si="2"/>
-        <v>0.47413931305783735</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="3"/>
-        <v>0.68403843563904165</v>
-      </c>
-      <c r="O8">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -1498,35 +1469,27 @@
         <v>40</v>
       </c>
       <c r="I9">
-        <f>(H9/(G9+H9))</f>
+        <f t="shared" si="0"/>
         <v>0.81632653061224492</v>
       </c>
       <c r="J9">
-        <f>(G9/(G9+H9))</f>
+        <f t="shared" si="1"/>
         <v>0.18367346938775511</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25714285.714285713</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>114285714.28571427</v>
       </c>
       <c r="M9">
-        <f t="shared" si="2"/>
-        <v>0.47691827034361789</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="3"/>
-        <v>0.68804762353407956</v>
-      </c>
-      <c r="O9">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -1552,11 +1515,11 @@
         <v>37</v>
       </c>
       <c r="I10">
-        <f>(H10/(G10+H10))</f>
+        <f t="shared" si="0"/>
         <v>0.80434782608695654</v>
       </c>
       <c r="J10">
-        <f>(G10/(G10+H10))</f>
+        <f t="shared" si="1"/>
         <v>0.19565217391304349</v>
       </c>
       <c r="K10">
@@ -1568,19 +1531,11 @@
         <v>105714285.7142857</v>
       </c>
       <c r="M10">
-        <f>((I10*LN(I10))+(J10*LN(J10)))*-1</f>
-        <v>0.49431565814426282</v>
-      </c>
-      <c r="N10">
-        <f>M10/LN(2)</f>
-        <v>0.71314674863849215</v>
-      </c>
-      <c r="O10">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>167</v>
       </c>
@@ -1606,11 +1561,11 @@
         <v>41</v>
       </c>
       <c r="I11">
-        <f>(H11/(G11+H11))</f>
+        <f t="shared" si="0"/>
         <v>0.80392156862745101</v>
       </c>
       <c r="J11">
-        <f>(G11/(G11+H11))</f>
+        <f t="shared" si="1"/>
         <v>0.19607843137254902</v>
       </c>
       <c r="K11">
@@ -1622,19 +1577,11 @@
         <v>117142857.14285713</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11:M74" si="7">((I11*LN(I11))+(J11*LN(J11)))*-1</f>
-        <v>0.49491767851222623</v>
-      </c>
-      <c r="N11">
-        <f t="shared" ref="N11:N74" si="8">M11/LN(2)</f>
-        <v>0.71401528043786711</v>
-      </c>
-      <c r="O11">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1660,11 +1607,11 @@
         <v>34</v>
       </c>
       <c r="I12">
-        <f>(H12/(G12+H12))</f>
+        <f t="shared" si="0"/>
         <v>0.79069767441860461</v>
       </c>
       <c r="J12">
-        <f>(G12/(G12+H12))</f>
+        <f t="shared" si="1"/>
         <v>0.20930232558139536</v>
       </c>
       <c r="K12">
@@ -1676,19 +1623,11 @@
         <v>97142857.142857134</v>
       </c>
       <c r="M12">
-        <f t="shared" si="7"/>
-        <v>0.51303083585692377</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="8"/>
-        <v>0.74014704271390375</v>
-      </c>
-      <c r="O12">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1714,11 +1653,11 @@
         <v>41</v>
       </c>
       <c r="I13">
-        <f>(H13/(G13+H13))</f>
+        <f t="shared" si="0"/>
         <v>0.78846153846153844</v>
       </c>
       <c r="J13">
-        <f>(G13/(G13+H13))</f>
+        <f t="shared" si="1"/>
         <v>0.21153846153846154</v>
       </c>
       <c r="K13">
@@ -1730,19 +1669,11 @@
         <v>117142857.14285713</v>
       </c>
       <c r="M13">
-        <f t="shared" si="7"/>
-        <v>0.51598789674183709</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="8"/>
-        <v>0.74441317978817489</v>
-      </c>
-      <c r="O13">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>40</v>
       </c>
@@ -1768,11 +1699,11 @@
         <v>40</v>
       </c>
       <c r="I14">
-        <f>(H14/(G14+H14))</f>
+        <f t="shared" si="0"/>
         <v>0.78431372549019607</v>
       </c>
       <c r="J14">
-        <f>(G14/(G14+H14))</f>
+        <f t="shared" si="1"/>
         <v>0.21568627450980393</v>
       </c>
       <c r="K14">
@@ -1784,19 +1715,11 @@
         <v>114285714.28571427</v>
       </c>
       <c r="M14">
-        <f t="shared" si="7"/>
-        <v>0.52139374712943309</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="8"/>
-        <v>0.75221217333414736</v>
-      </c>
-      <c r="O14">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>46</v>
       </c>
@@ -1822,11 +1745,11 @@
         <v>36</v>
       </c>
       <c r="I15">
-        <f>(H15/(G15+H15))</f>
+        <f t="shared" si="0"/>
         <v>0.78260869565217395</v>
       </c>
       <c r="J15">
-        <f>(G15/(G15+H15))</f>
+        <f t="shared" si="1"/>
         <v>0.21739130434782608</v>
       </c>
       <c r="K15">
@@ -1838,19 +1761,11 @@
         <v>102857142.85714285</v>
       </c>
       <c r="M15">
-        <f t="shared" si="7"/>
-        <v>0.52358633748125982</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="8"/>
-        <v>0.75537541256142871</v>
-      </c>
-      <c r="O15">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
@@ -1876,11 +1791,11 @@
         <v>31</v>
       </c>
       <c r="I16">
-        <f>(H16/(G16+H16))</f>
+        <f t="shared" si="0"/>
         <v>0.77500000000000002</v>
       </c>
       <c r="J16">
-        <f>(G16/(G16+H16))</f>
+        <f t="shared" si="1"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="K16">
@@ -1892,19 +1807,11 @@
         <v>88571428.571428567</v>
       </c>
       <c r="M16">
-        <f t="shared" si="7"/>
-        <v>0.53316384073729861</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="8"/>
-        <v>0.76919282901301378</v>
-      </c>
-      <c r="O16">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>73</v>
       </c>
@@ -1930,11 +1837,11 @@
         <v>24</v>
       </c>
       <c r="I17">
-        <f>(H17/(G17+H17))</f>
+        <f t="shared" si="0"/>
         <v>0.77419354838709675</v>
       </c>
       <c r="J17">
-        <f>(G17/(G17+H17))</f>
+        <f t="shared" si="1"/>
         <v>0.22580645161290322</v>
       </c>
       <c r="K17">
@@ -1946,19 +1853,11 @@
         <v>68571428.571428567</v>
       </c>
       <c r="M17">
-        <f t="shared" si="7"/>
-        <v>0.53415936668714992</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="8"/>
-        <v>0.7706290693639406</v>
-      </c>
-      <c r="O17">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
@@ -1984,11 +1883,11 @@
         <v>30</v>
       </c>
       <c r="I18">
-        <f>(H18/(G18+H18))</f>
+        <f t="shared" si="0"/>
         <v>0.76923076923076927</v>
       </c>
       <c r="J18">
-        <f>(G18/(G18+H18))</f>
+        <f t="shared" si="1"/>
         <v>0.23076923076923078</v>
       </c>
       <c r="K18">
@@ -2000,19 +1899,11 @@
         <v>85714285.714285702</v>
       </c>
       <c r="M18">
-        <f t="shared" si="7"/>
-        <v>0.54020414238886083</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="8"/>
-        <v>0.77934983729208507</v>
-      </c>
-      <c r="O18">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -2038,11 +1929,11 @@
         <v>36</v>
       </c>
       <c r="I19">
-        <f>(H19/(G19+H19))</f>
+        <f t="shared" si="0"/>
         <v>0.76595744680851063</v>
       </c>
       <c r="J19">
-        <f>(G19/(G19+H19))</f>
+        <f t="shared" si="1"/>
         <v>0.23404255319148937</v>
       </c>
       <c r="K19">
@@ -2054,19 +1945,11 @@
         <v>102857142.85714285</v>
       </c>
       <c r="M19">
-        <f t="shared" si="7"/>
-        <v>0.54411505308873864</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="8"/>
-        <v>0.78499208876415827</v>
-      </c>
-      <c r="O19">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>95</v>
       </c>
@@ -2092,11 +1975,11 @@
         <v>19</v>
       </c>
       <c r="I20">
-        <f>(H20/(G20+H20))</f>
+        <f t="shared" si="0"/>
         <v>0.76</v>
       </c>
       <c r="J20">
-        <f>(G20/(G20+H20))</f>
+        <f t="shared" si="1"/>
         <v>0.24</v>
       </c>
       <c r="K20">
@@ -2108,19 +1991,11 @@
         <v>54285714.285714284</v>
       </c>
       <c r="M20">
-        <f t="shared" si="7"/>
-        <v>0.55107992808697281</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="8"/>
-        <v>0.79504027938452226</v>
-      </c>
-      <c r="O20">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
@@ -2146,11 +2021,11 @@
         <v>28</v>
       </c>
       <c r="I21">
-        <f>(H21/(G21+H21))</f>
+        <f t="shared" si="0"/>
         <v>0.7567567567567568</v>
       </c>
       <c r="J21">
-        <f>(G21/(G21+H21))</f>
+        <f t="shared" si="1"/>
         <v>0.24324324324324326</v>
       </c>
       <c r="K21">
@@ -2162,19 +2037,11 @@
         <v>79999999.999999985</v>
       </c>
       <c r="M21">
-        <f t="shared" si="7"/>
-        <v>0.5547896023487735</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="8"/>
-        <v>0.80039220804533562</v>
-      </c>
-      <c r="O21">
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>141</v>
       </c>
@@ -2200,11 +2067,11 @@
         <v>34</v>
       </c>
       <c r="I22">
-        <f>(H22/(G22+H22))</f>
+        <f t="shared" si="0"/>
         <v>0.75555555555555554</v>
       </c>
       <c r="J22">
-        <f>(G22/(G22+H22))</f>
+        <f t="shared" si="1"/>
         <v>0.24444444444444444</v>
       </c>
       <c r="K22">
@@ -2216,19 +2083,11 @@
         <v>97142857.142857134</v>
       </c>
       <c r="M22">
-        <f t="shared" si="7"/>
-        <v>0.5561490267096183</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="8"/>
-        <v>0.80235344282918997</v>
-      </c>
-      <c r="O22">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>174</v>
       </c>
@@ -2254,11 +2113,11 @@
         <v>43</v>
       </c>
       <c r="I23">
-        <f>(H23/(G23+H23))</f>
+        <f t="shared" si="0"/>
         <v>0.75438596491228072</v>
       </c>
       <c r="J23">
-        <f>(G23/(G23+H23))</f>
+        <f t="shared" si="1"/>
         <v>0.24561403508771928</v>
       </c>
       <c r="K23">
@@ -2270,19 +2129,11 @@
         <v>122857142.85714285</v>
       </c>
       <c r="M23">
-        <f t="shared" si="7"/>
-        <v>0.55746516977425531</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="8"/>
-        <v>0.80425223590164219</v>
-      </c>
-      <c r="O23">
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -2308,11 +2159,11 @@
         <v>52</v>
       </c>
       <c r="I24">
-        <f>(H24/(G24+H24))</f>
+        <f t="shared" si="0"/>
         <v>0.75362318840579712</v>
       </c>
       <c r="J24">
-        <f>(G24/(G24+H24))</f>
+        <f t="shared" si="1"/>
         <v>0.24637681159420291</v>
       </c>
       <c r="K24">
@@ -2324,19 +2175,11 @@
         <v>148571428.57142857</v>
       </c>
       <c r="M24">
-        <f t="shared" si="7"/>
-        <v>0.55831954495682612</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="8"/>
-        <v>0.80548483874059573</v>
-      </c>
-      <c r="O24">
         <f t="shared" si="4"/>
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>155</v>
       </c>
@@ -2362,11 +2205,11 @@
         <v>33</v>
       </c>
       <c r="I25">
-        <f>(H25/(G25+H25))</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="J25">
-        <f>(G25/(G25+H25))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="K25">
@@ -2378,19 +2221,11 @@
         <v>94285714.285714284</v>
       </c>
       <c r="M25">
-        <f t="shared" si="7"/>
-        <v>0.56233514461880829</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="8"/>
-        <v>0.81127812445913283</v>
-      </c>
-      <c r="O25">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>146</v>
       </c>
@@ -2416,11 +2251,11 @@
         <v>21</v>
       </c>
       <c r="I26">
-        <f>(H26/(G26+H26))</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="J26">
-        <f>(G26/(G26+H26))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="K26">
@@ -2432,19 +2267,11 @@
         <v>59999999.999999993</v>
       </c>
       <c r="M26">
-        <f t="shared" si="7"/>
-        <v>0.56233514461880829</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="8"/>
-        <v>0.81127812445913283</v>
-      </c>
-      <c r="O26">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>152</v>
       </c>
@@ -2470,11 +2297,11 @@
         <v>21</v>
       </c>
       <c r="I27">
-        <f>(H27/(G27+H27))</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="J27">
-        <f>(G27/(G27+H27))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="K27">
@@ -2486,19 +2313,11 @@
         <v>59999999.999999993</v>
       </c>
       <c r="M27">
-        <f t="shared" si="7"/>
-        <v>0.56233514461880829</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="8"/>
-        <v>0.81127812445913283</v>
-      </c>
-      <c r="O27">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>180</v>
       </c>
@@ -2524,11 +2343,11 @@
         <v>21</v>
       </c>
       <c r="I28">
-        <f>(H28/(G28+H28))</f>
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
       <c r="J28">
-        <f>(G28/(G28+H28))</f>
+        <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
       <c r="K28">
@@ -2540,19 +2359,11 @@
         <v>59999999.999999993</v>
       </c>
       <c r="M28">
-        <f t="shared" si="7"/>
-        <v>0.56233514461880829</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="8"/>
-        <v>0.81127812445913283</v>
-      </c>
-      <c r="O28">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>173</v>
       </c>
@@ -2578,11 +2389,11 @@
         <v>32</v>
       </c>
       <c r="I29">
-        <f>(H29/(G29+H29))</f>
+        <f t="shared" si="0"/>
         <v>0.7441860465116279</v>
       </c>
       <c r="J29">
-        <f>(G29/(G29+H29))</f>
+        <f t="shared" si="1"/>
         <v>0.2558139534883721</v>
       </c>
       <c r="K29">
@@ -2594,19 +2405,11 @@
         <v>91428571.428571418</v>
       </c>
       <c r="M29">
-        <f t="shared" si="7"/>
-        <v>0.5686327461499967</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="8"/>
-        <v>0.82036364295767306</v>
-      </c>
-      <c r="O29">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2632,11 +2435,11 @@
         <v>37</v>
       </c>
       <c r="I30">
-        <f>(H30/(G30+H30))</f>
+        <f t="shared" si="0"/>
         <v>0.74</v>
       </c>
       <c r="J30">
-        <f>(G30/(G30+H30))</f>
+        <f t="shared" si="1"/>
         <v>0.26</v>
       </c>
       <c r="K30">
@@ -2648,19 +2451,11 @@
         <v>105714285.7142857</v>
       </c>
       <c r="M30">
-        <f t="shared" si="7"/>
-        <v>0.57305691713142037</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="8"/>
-        <v>0.82674637249261784</v>
-      </c>
-      <c r="O30">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -2686,11 +2481,11 @@
         <v>37</v>
       </c>
       <c r="I31">
-        <f>(H31/(G31+H31))</f>
+        <f t="shared" si="0"/>
         <v>0.74</v>
       </c>
       <c r="J31">
-        <f>(G31/(G31+H31))</f>
+        <f t="shared" si="1"/>
         <v>0.26</v>
       </c>
       <c r="K31">
@@ -2702,19 +2497,11 @@
         <v>105714285.7142857</v>
       </c>
       <c r="M31">
-        <f t="shared" si="7"/>
-        <v>0.57305691713142037</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="8"/>
-        <v>0.82674637249261784</v>
-      </c>
-      <c r="O31">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
@@ -2740,11 +2527,11 @@
         <v>31</v>
       </c>
       <c r="I32">
-        <f>(H32/(G32+H32))</f>
+        <f t="shared" si="0"/>
         <v>0.73809523809523814</v>
       </c>
       <c r="J32">
-        <f>(G32/(G32+H32))</f>
+        <f t="shared" si="1"/>
         <v>0.26190476190476192</v>
       </c>
       <c r="K32">
@@ -2756,19 +2543,11 @@
         <v>88571428.571428567</v>
       </c>
       <c r="M32">
-        <f t="shared" si="7"/>
-        <v>0.57503982447809188</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="8"/>
-        <v>0.82960710308820318</v>
-      </c>
-      <c r="O32">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>51</v>
       </c>
@@ -2794,11 +2573,11 @@
         <v>31</v>
       </c>
       <c r="I33">
-        <f>(H33/(G33+H33))</f>
+        <f t="shared" si="0"/>
         <v>0.73809523809523814</v>
       </c>
       <c r="J33">
-        <f>(G33/(G33+H33))</f>
+        <f t="shared" si="1"/>
         <v>0.26190476190476192</v>
       </c>
       <c r="K33">
@@ -2810,19 +2589,11 @@
         <v>88571428.571428567</v>
       </c>
       <c r="M33">
-        <f t="shared" si="7"/>
-        <v>0.57503982447809188</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="8"/>
-        <v>0.82960710308820318</v>
-      </c>
-      <c r="O33">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
@@ -2848,11 +2619,11 @@
         <v>33</v>
       </c>
       <c r="I34">
-        <f>(H34/(G34+H34))</f>
+        <f t="shared" ref="I34:I65" si="7">(H34/(G34+H34))</f>
         <v>0.73333333333333328</v>
       </c>
       <c r="J34">
-        <f>(G34/(G34+H34))</f>
+        <f t="shared" ref="J34:J65" si="8">(G34/(G34+H34))</f>
         <v>0.26666666666666666</v>
       </c>
       <c r="K34">
@@ -2864,19 +2635,11 @@
         <v>94285714.285714284</v>
       </c>
       <c r="M34">
-        <f t="shared" si="7"/>
-        <v>0.57991517141810089</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="8"/>
-        <v>0.83664074194116733</v>
-      </c>
-      <c r="O34">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -2902,11 +2665,11 @@
         <v>22</v>
       </c>
       <c r="I35">
-        <f>(H35/(G35+H35))</f>
+        <f t="shared" si="7"/>
         <v>0.73333333333333328</v>
       </c>
       <c r="J35">
-        <f>(G35/(G35+H35))</f>
+        <f t="shared" si="8"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="K35">
@@ -2918,19 +2681,11 @@
         <v>62857142.857142851</v>
       </c>
       <c r="M35">
-        <f t="shared" si="7"/>
-        <v>0.57991517141810089</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="8"/>
-        <v>0.83664074194116733</v>
-      </c>
-      <c r="O35">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>145</v>
       </c>
@@ -2956,11 +2711,11 @@
         <v>38</v>
       </c>
       <c r="I36">
-        <f>(H36/(G36+H36))</f>
+        <f t="shared" si="7"/>
         <v>0.73076923076923073</v>
       </c>
       <c r="J36">
-        <f>(G36/(G36+H36))</f>
+        <f t="shared" si="8"/>
         <v>0.26923076923076922</v>
       </c>
       <c r="K36">
@@ -2972,19 +2727,11 @@
         <v>108571428.57142857</v>
       </c>
       <c r="M36">
-        <f t="shared" si="7"/>
-        <v>0.58249224388496046</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="8"/>
-        <v>0.84035867160911715</v>
-      </c>
-      <c r="O36">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -3010,11 +2757,11 @@
         <v>32</v>
       </c>
       <c r="I37">
-        <f>(H37/(G37+H37))</f>
+        <f t="shared" si="7"/>
         <v>0.72727272727272729</v>
       </c>
       <c r="J37">
-        <f>(G37/(G37+H37))</f>
+        <f t="shared" si="8"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="K37">
@@ -3026,19 +2773,11 @@
         <v>91428571.428571418</v>
       </c>
       <c r="M37">
-        <f t="shared" si="7"/>
-        <v>0.58595261830355083</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="8"/>
-        <v>0.84535093662243643</v>
-      </c>
-      <c r="O37">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>130</v>
       </c>
@@ -3064,11 +2803,11 @@
         <v>24</v>
       </c>
       <c r="I38">
-        <f>(H38/(G38+H38))</f>
+        <f t="shared" si="7"/>
         <v>0.72727272727272729</v>
       </c>
       <c r="J38">
-        <f>(G38/(G38+H38))</f>
+        <f t="shared" si="8"/>
         <v>0.27272727272727271</v>
       </c>
       <c r="K38">
@@ -3080,19 +2819,11 @@
         <v>68571428.571428567</v>
       </c>
       <c r="M38">
-        <f t="shared" si="7"/>
-        <v>0.58595261830355083</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="8"/>
-        <v>0.84535093662243643</v>
-      </c>
-      <c r="O38">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>144</v>
       </c>
@@ -3118,11 +2849,11 @@
         <v>21</v>
       </c>
       <c r="I39">
-        <f>(H39/(G39+H39))</f>
+        <f t="shared" si="7"/>
         <v>0.72413793103448276</v>
       </c>
       <c r="J39">
-        <f>(G39/(G39+H39))</f>
+        <f t="shared" si="8"/>
         <v>0.27586206896551724</v>
       </c>
       <c r="K39">
@@ -3134,19 +2865,11 @@
         <v>59999999.999999993</v>
       </c>
       <c r="M39">
-        <f t="shared" si="7"/>
-        <v>0.58900260496473023</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="8"/>
-        <v>0.84975113725329743</v>
-      </c>
-      <c r="O39">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
@@ -3172,11 +2895,11 @@
         <v>34</v>
       </c>
       <c r="I40">
-        <f>(H40/(G40+H40))</f>
+        <f t="shared" si="7"/>
         <v>0.72340425531914898</v>
       </c>
       <c r="J40">
-        <f>(G40/(G40+H40))</f>
+        <f t="shared" si="8"/>
         <v>0.27659574468085107</v>
       </c>
       <c r="K40">
@@ -3188,19 +2911,11 @@
         <v>97142857.142857134</v>
       </c>
       <c r="M40">
-        <f t="shared" si="7"/>
-        <v>0.58970931481751676</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="8"/>
-        <v>0.85077070405325994</v>
-      </c>
-      <c r="O40">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>170</v>
       </c>
@@ -3226,11 +2941,11 @@
         <v>34</v>
       </c>
       <c r="I41">
-        <f>(H41/(G41+H41))</f>
+        <f t="shared" si="7"/>
         <v>0.72340425531914898</v>
       </c>
       <c r="J41">
-        <f>(G41/(G41+H41))</f>
+        <f t="shared" si="8"/>
         <v>0.27659574468085107</v>
       </c>
       <c r="K41">
@@ -3242,19 +2957,11 @@
         <v>97142857.142857134</v>
       </c>
       <c r="M41">
-        <f t="shared" si="7"/>
-        <v>0.58970931481751676</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="8"/>
-        <v>0.85077070405325994</v>
-      </c>
-      <c r="O41">
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3280,11 +2987,11 @@
         <v>39</v>
       </c>
       <c r="I42">
-        <f>(H42/(G42+H42))</f>
+        <f t="shared" si="7"/>
         <v>0.72222222222222221</v>
       </c>
       <c r="J42">
-        <f>(G42/(G42+H42))</f>
+        <f t="shared" si="8"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="K42">
@@ -3296,19 +3003,11 @@
         <v>111428571.42857142</v>
       </c>
       <c r="M42">
-        <f t="shared" si="7"/>
-        <v>0.59084224627558257</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="8"/>
-        <v>0.85240517864947862</v>
-      </c>
-      <c r="O42">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>172</v>
       </c>
@@ -3334,11 +3033,11 @@
         <v>26</v>
       </c>
       <c r="I43">
-        <f>(H43/(G43+H43))</f>
+        <f t="shared" si="7"/>
         <v>0.72222222222222221</v>
       </c>
       <c r="J43">
-        <f>(G43/(G43+H43))</f>
+        <f t="shared" si="8"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="K43">
@@ -3350,19 +3049,11 @@
         <v>74285714.285714284</v>
       </c>
       <c r="M43">
-        <f t="shared" si="7"/>
-        <v>0.59084224627558257</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="8"/>
-        <v>0.85240517864947862</v>
-      </c>
-      <c r="O43">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
@@ -3388,11 +3079,11 @@
         <v>28</v>
       </c>
       <c r="I44">
-        <f>(H44/(G44+H44))</f>
+        <f t="shared" si="7"/>
         <v>0.71794871794871795</v>
       </c>
       <c r="J44">
-        <f>(G44/(G44+H44))</f>
+        <f t="shared" si="8"/>
         <v>0.28205128205128205</v>
       </c>
       <c r="K44">
@@ -3404,19 +3095,11 @@
         <v>79999999.999999985</v>
       </c>
       <c r="M44">
-        <f t="shared" si="7"/>
-        <v>0.59488025418893398</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="8"/>
-        <v>0.8582307926411411</v>
-      </c>
-      <c r="O44">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>58</v>
       </c>
@@ -3442,11 +3125,11 @@
         <v>27</v>
       </c>
       <c r="I45">
-        <f>(H45/(G45+H45))</f>
+        <f t="shared" si="7"/>
         <v>0.71052631578947367</v>
       </c>
       <c r="J45">
-        <f>(G45/(G45+H45))</f>
+        <f t="shared" si="8"/>
         <v>0.28947368421052633</v>
       </c>
       <c r="K45">
@@ -3458,19 +3141,11 @@
         <v>77142857.142857134</v>
       </c>
       <c r="M45">
-        <f t="shared" si="7"/>
-        <v>0.6016797549132552</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="8"/>
-        <v>0.86804039861664017</v>
-      </c>
-      <c r="O45">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>166</v>
       </c>
@@ -3496,11 +3171,11 @@
         <v>27</v>
       </c>
       <c r="I46">
-        <f>(H46/(G46+H46))</f>
+        <f t="shared" si="7"/>
         <v>0.71052631578947367</v>
       </c>
       <c r="J46">
-        <f>(G46/(G46+H46))</f>
+        <f t="shared" si="8"/>
         <v>0.28947368421052633</v>
       </c>
       <c r="K46">
@@ -3512,19 +3187,11 @@
         <v>77142857.142857134</v>
       </c>
       <c r="M46">
-        <f t="shared" si="7"/>
-        <v>0.6016797549132552</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="8"/>
-        <v>0.86804039861664017</v>
-      </c>
-      <c r="O46">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -3550,11 +3217,11 @@
         <v>28</v>
       </c>
       <c r="I47">
-        <f>(H47/(G47+H47))</f>
+        <f t="shared" si="7"/>
         <v>0.7</v>
       </c>
       <c r="J47">
-        <f>(G47/(G47+H47))</f>
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
       <c r="K47">
@@ -3566,19 +3233,11 @@
         <v>79999999.999999985</v>
       </c>
       <c r="M47">
-        <f t="shared" si="7"/>
-        <v>0.6108643020548935</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="8"/>
-        <v>0.8812908992306927</v>
-      </c>
-      <c r="O47">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>175</v>
       </c>
@@ -3604,11 +3263,11 @@
         <v>44</v>
       </c>
       <c r="I48">
-        <f>(H48/(G48+H48))</f>
+        <f t="shared" si="7"/>
         <v>0.69841269841269837</v>
       </c>
       <c r="J48">
-        <f>(G48/(G48+H48))</f>
+        <f t="shared" si="8"/>
         <v>0.30158730158730157</v>
       </c>
       <c r="K48">
@@ -3620,19 +3279,11 @@
         <v>125714285.7142857</v>
       </c>
       <c r="M48">
-        <f t="shared" si="7"/>
-        <v>0.61220322644604286</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="8"/>
-        <v>0.88322255880992917</v>
-      </c>
-      <c r="O48">
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>139</v>
       </c>
@@ -3658,11 +3309,11 @@
         <v>37</v>
       </c>
       <c r="I49">
-        <f>(H49/(G49+H49))</f>
+        <f t="shared" si="7"/>
         <v>0.69811320754716977</v>
       </c>
       <c r="J49">
-        <f>(G49/(G49+H49))</f>
+        <f t="shared" si="8"/>
         <v>0.30188679245283018</v>
       </c>
       <c r="K49">
@@ -3674,19 +3325,11 @@
         <v>105714285.7142857</v>
       </c>
       <c r="M49">
-        <f t="shared" si="7"/>
-        <v>0.61245451121867267</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="8"/>
-        <v>0.8835850861052531</v>
-      </c>
-      <c r="O49">
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>28</v>
       </c>
@@ -3712,11 +3355,11 @@
         <v>41</v>
       </c>
       <c r="I50">
-        <f>(H50/(G50+H50))</f>
+        <f t="shared" si="7"/>
         <v>0.69491525423728817</v>
       </c>
       <c r="J50">
-        <f>(G50/(G50+H50))</f>
+        <f t="shared" si="8"/>
         <v>0.30508474576271188</v>
       </c>
       <c r="K50">
@@ -3728,19 +3371,11 @@
         <v>117142857.14285713</v>
       </c>
       <c r="M50">
-        <f t="shared" si="7"/>
-        <v>0.61511123412592994</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="8"/>
-        <v>0.88741792706856926</v>
-      </c>
-      <c r="O50">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>131</v>
       </c>
@@ -3766,11 +3401,11 @@
         <v>25</v>
       </c>
       <c r="I51">
-        <f>(H51/(G51+H51))</f>
+        <f t="shared" si="7"/>
         <v>0.69444444444444442</v>
       </c>
       <c r="J51">
-        <f>(G51/(G51+H51))</f>
+        <f t="shared" si="8"/>
         <v>0.30555555555555558</v>
       </c>
       <c r="K51">
@@ -3782,19 +3417,11 @@
         <v>71428571.428571418</v>
       </c>
       <c r="M51">
-        <f t="shared" si="7"/>
-        <v>0.61549828227591297</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="8"/>
-        <v>0.887976319515135</v>
-      </c>
-      <c r="O51">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>163</v>
       </c>
@@ -3820,11 +3447,11 @@
         <v>27</v>
       </c>
       <c r="I52">
-        <f>(H52/(G52+H52))</f>
+        <f t="shared" si="7"/>
         <v>0.69230769230769229</v>
       </c>
       <c r="J52">
-        <f>(G52/(G52+H52))</f>
+        <f t="shared" si="8"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="K52">
@@ -3836,19 +3463,11 @@
         <v>77142857.142857134</v>
       </c>
       <c r="M52">
-        <f t="shared" si="7"/>
-        <v>0.61724176973034162</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="8"/>
-        <v>0.89049164021949134</v>
-      </c>
-      <c r="O52">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
@@ -3874,11 +3493,11 @@
         <v>20</v>
       </c>
       <c r="I53">
-        <f>(H53/(G53+H53))</f>
+        <f t="shared" si="7"/>
         <v>0.68965517241379315</v>
       </c>
       <c r="J53">
-        <f>(G53/(G53+H53))</f>
+        <f t="shared" si="8"/>
         <v>0.31034482758620691</v>
       </c>
       <c r="K53">
@@ -3890,19 +3509,11 @@
         <v>57142857.142857134</v>
       </c>
       <c r="M53">
-        <f t="shared" si="7"/>
-        <v>0.61937628974144654</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="8"/>
-        <v>0.89357110165419074</v>
-      </c>
-      <c r="O53">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
@@ -3928,11 +3539,11 @@
         <v>33</v>
       </c>
       <c r="I54">
-        <f>(H54/(G54+H54))</f>
+        <f t="shared" si="7"/>
         <v>0.6875</v>
       </c>
       <c r="J54">
-        <f>(G54/(G54+H54))</f>
+        <f t="shared" si="8"/>
         <v>0.3125</v>
       </c>
       <c r="K54">
@@ -3944,19 +3555,11 @@
         <v>94285714.285714284</v>
       </c>
       <c r="M54">
-        <f t="shared" si="7"/>
-        <v>0.62108637455524507</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="8"/>
-        <v>0.89603823253455739</v>
-      </c>
-      <c r="O54">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>83</v>
       </c>
@@ -3982,11 +3585,11 @@
         <v>24</v>
       </c>
       <c r="I55">
-        <f>(H55/(G55+H55))</f>
+        <f t="shared" si="7"/>
         <v>0.68571428571428572</v>
       </c>
       <c r="J55">
-        <f>(G55/(G55+H55))</f>
+        <f t="shared" si="8"/>
         <v>0.31428571428571428</v>
       </c>
       <c r="K55">
@@ -3998,19 +3601,11 @@
         <v>68571428.571428567</v>
       </c>
       <c r="M55">
-        <f t="shared" si="7"/>
-        <v>0.62248692065704869</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="8"/>
-        <v>0.89805879345016582</v>
-      </c>
-      <c r="O55">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -4036,11 +3631,11 @@
         <v>28</v>
       </c>
       <c r="I56">
-        <f>(H56/(G56+H56))</f>
+        <f t="shared" si="7"/>
         <v>0.68292682926829273</v>
       </c>
       <c r="J56">
-        <f>(G56/(G56+H56))</f>
+        <f t="shared" si="8"/>
         <v>0.31707317073170732</v>
       </c>
       <c r="K56">
@@ -4052,19 +3647,11 @@
         <v>79999999.999999985</v>
       </c>
       <c r="M56">
-        <f t="shared" si="7"/>
-        <v>0.62464358056026659</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="8"/>
-        <v>0.90117019599742232</v>
-      </c>
-      <c r="O56">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>84</v>
       </c>
@@ -4090,11 +3677,11 @@
         <v>28</v>
       </c>
       <c r="I57">
-        <f>(H57/(G57+H57))</f>
+        <f t="shared" si="7"/>
         <v>0.68292682926829273</v>
       </c>
       <c r="J57">
-        <f>(G57/(G57+H57))</f>
+        <f t="shared" si="8"/>
         <v>0.31707317073170732</v>
       </c>
       <c r="K57">
@@ -4106,19 +3693,11 @@
         <v>79999999.999999985</v>
       </c>
       <c r="M57">
-        <f t="shared" si="7"/>
-        <v>0.62464358056026659</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="8"/>
-        <v>0.90117019599742232</v>
-      </c>
-      <c r="O57">
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>92</v>
       </c>
@@ -4144,11 +3723,11 @@
         <v>30</v>
       </c>
       <c r="I58">
-        <f>(H58/(G58+H58))</f>
+        <f t="shared" si="7"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="J58">
-        <f>(G58/(G58+H58))</f>
+        <f t="shared" si="8"/>
         <v>0.31818181818181818</v>
       </c>
       <c r="K58">
@@ -4160,19 +3739,11 @@
         <v>85714285.714285702</v>
       </c>
       <c r="M58">
-        <f t="shared" si="7"/>
-        <v>0.62549135972557302</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="8"/>
-        <v>0.90239328279497888</v>
-      </c>
-      <c r="O58">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>123</v>
       </c>
@@ -4198,11 +3769,11 @@
         <v>34</v>
       </c>
       <c r="I59">
-        <f>(H59/(G59+H59))</f>
+        <f t="shared" si="7"/>
         <v>0.68</v>
       </c>
       <c r="J59">
-        <f>(G59/(G59+H59))</f>
+        <f t="shared" si="8"/>
         <v>0.32</v>
       </c>
       <c r="K59">
@@ -4214,19 +3785,11 @@
         <v>97142857.142857134</v>
       </c>
       <c r="M59">
-        <f t="shared" si="7"/>
-        <v>0.62686945757242629</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="8"/>
-        <v>0.90438145772449385</v>
-      </c>
-      <c r="O59">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>71</v>
       </c>
@@ -4252,11 +3815,11 @@
         <v>17</v>
       </c>
       <c r="I60">
-        <f>(H60/(G60+H60))</f>
+        <f t="shared" si="7"/>
         <v>0.68</v>
       </c>
       <c r="J60">
-        <f>(G60/(G60+H60))</f>
+        <f t="shared" si="8"/>
         <v>0.32</v>
       </c>
       <c r="K60">
@@ -4268,19 +3831,11 @@
         <v>48571428.571428567</v>
       </c>
       <c r="M60">
-        <f t="shared" si="7"/>
-        <v>0.62686945757242629</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="8"/>
-        <v>0.90438145772449385</v>
-      </c>
-      <c r="O60">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>77</v>
       </c>
@@ -4306,11 +3861,11 @@
         <v>23</v>
       </c>
       <c r="I61">
-        <f>(H61/(G61+H61))</f>
+        <f t="shared" si="7"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="J61">
-        <f>(G61/(G61+H61))</f>
+        <f t="shared" si="8"/>
         <v>0.3235294117647059</v>
       </c>
       <c r="K61">
@@ -4322,19 +3877,11 @@
         <v>65714285.714285709</v>
       </c>
       <c r="M61">
-        <f t="shared" si="7"/>
-        <v>0.62950126087638147</v>
-      </c>
-      <c r="N61">
-        <f t="shared" si="8"/>
-        <v>0.90817834729970526</v>
-      </c>
-      <c r="O61">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>157</v>
       </c>
@@ -4360,11 +3907,11 @@
         <v>29</v>
       </c>
       <c r="I62">
-        <f>(H62/(G62+H62))</f>
+        <f t="shared" si="7"/>
         <v>0.67441860465116277</v>
       </c>
       <c r="J62">
-        <f>(G62/(G62+H62))</f>
+        <f t="shared" si="8"/>
         <v>0.32558139534883723</v>
       </c>
       <c r="K62">
@@ -4376,19 +3923,11 @@
         <v>82857142.857142851</v>
       </c>
       <c r="M62">
-        <f t="shared" si="7"/>
-        <v>0.63100519280469347</v>
-      </c>
-      <c r="N62">
-        <f t="shared" si="8"/>
-        <v>0.91034806243451549</v>
-      </c>
-      <c r="O62">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>79</v>
       </c>
@@ -4414,11 +3953,11 @@
         <v>31</v>
       </c>
       <c r="I63">
-        <f>(H63/(G63+H63))</f>
+        <f t="shared" si="7"/>
         <v>0.67391304347826086</v>
       </c>
       <c r="J63">
-        <f>(G63/(G63+H63))</f>
+        <f t="shared" si="8"/>
         <v>0.32608695652173914</v>
       </c>
       <c r="K63">
@@ -4430,19 +3969,11 @@
         <v>88571428.571428567</v>
       </c>
       <c r="M63">
-        <f t="shared" si="7"/>
-        <v>0.63137278006360187</v>
-      </c>
-      <c r="N63">
-        <f t="shared" si="8"/>
-        <v>0.91087837875003663</v>
-      </c>
-      <c r="O63">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>159</v>
       </c>
@@ -4468,11 +3999,11 @@
         <v>38</v>
       </c>
       <c r="I64">
-        <f>(H64/(G64+H64))</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J64">
-        <f>(G64/(G64+H64))</f>
+        <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K64">
@@ -4484,19 +4015,11 @@
         <v>108571428.57142857</v>
       </c>
       <c r="M64">
-        <f t="shared" si="7"/>
-        <v>0.63651416829481278</v>
-      </c>
-      <c r="N64">
-        <f t="shared" si="8"/>
-        <v>0.91829583405448945</v>
-      </c>
-      <c r="O64">
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>119</v>
       </c>
@@ -4522,11 +4045,11 @@
         <v>34</v>
       </c>
       <c r="I65">
-        <f>(H65/(G65+H65))</f>
+        <f t="shared" si="7"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J65">
-        <f>(G65/(G65+H65))</f>
+        <f t="shared" si="8"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K65">
@@ -4538,19 +4061,11 @@
         <v>97142857.142857134</v>
       </c>
       <c r="M65">
-        <f t="shared" si="7"/>
-        <v>0.63651416829481278</v>
-      </c>
-      <c r="N65">
-        <f t="shared" si="8"/>
-        <v>0.91829583405448945</v>
-      </c>
-      <c r="O65">
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>89</v>
       </c>
@@ -4576,11 +4091,11 @@
         <v>26</v>
       </c>
       <c r="I66">
-        <f>(H66/(G66+H66))</f>
+        <f t="shared" ref="I66:I97" si="9">(H66/(G66+H66))</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="J66">
-        <f>(G66/(G66+H66))</f>
+        <f t="shared" ref="J66:J97" si="10">(G66/(G66+H66))</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="K66">
@@ -4592,19 +4107,11 @@
         <v>74285714.285714284</v>
       </c>
       <c r="M66">
-        <f t="shared" si="7"/>
-        <v>0.63651416829481278</v>
-      </c>
-      <c r="N66">
-        <f t="shared" si="8"/>
-        <v>0.91829583405448945</v>
-      </c>
-      <c r="O66">
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>12</v>
       </c>
@@ -4630,11 +4137,11 @@
         <v>20</v>
       </c>
       <c r="I67">
-        <f>(H67/(G67+H67))</f>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J67">
-        <f>(G67/(G67+H67))</f>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K67">
@@ -4646,19 +4153,11 @@
         <v>57142857.142857134</v>
       </c>
       <c r="M67">
-        <f t="shared" si="7"/>
-        <v>0.63651416829481278</v>
-      </c>
-      <c r="N67">
-        <f t="shared" si="8"/>
-        <v>0.91829583405448945</v>
-      </c>
-      <c r="O67">
-        <f t="shared" ref="O67:O130" si="9">G67+H67</f>
+        <f t="shared" ref="M67:M130" si="11">G67+H67</f>
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>53</v>
       </c>
@@ -4684,11 +4183,11 @@
         <v>20</v>
       </c>
       <c r="I68">
-        <f>(H68/(G68+H68))</f>
+        <f t="shared" si="9"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J68">
-        <f>(G68/(G68+H68))</f>
+        <f t="shared" si="10"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="K68">
@@ -4700,19 +4199,11 @@
         <v>57142857.142857134</v>
       </c>
       <c r="M68">
-        <f t="shared" si="7"/>
-        <v>0.63651416829481278</v>
-      </c>
-      <c r="N68">
-        <f t="shared" si="8"/>
-        <v>0.91829583405448945</v>
-      </c>
-      <c r="O68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>35</v>
       </c>
@@ -4738,11 +4229,11 @@
         <v>29</v>
       </c>
       <c r="I69">
-        <f>(H69/(G69+H69))</f>
+        <f t="shared" si="9"/>
         <v>0.65909090909090906</v>
       </c>
       <c r="J69">
-        <f>(G69/(G69+H69))</f>
+        <f t="shared" si="10"/>
         <v>0.34090909090909088</v>
       </c>
       <c r="K69">
@@ -4754,21 +4245,13 @@
         <v>82857142.857142851</v>
       </c>
       <c r="M69">
-        <f t="shared" si="7"/>
-        <v>0.64163663196051346</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="8"/>
-        <v>0.92568598698212978</v>
-      </c>
-      <c r="O69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>8</v>
@@ -4792,11 +4275,11 @@
         <v>29</v>
       </c>
       <c r="I70">
-        <f>(H70/(G70+H70))</f>
+        <f t="shared" si="9"/>
         <v>0.65909090909090906</v>
       </c>
       <c r="J70">
-        <f>(G70/(G70+H70))</f>
+        <f t="shared" si="10"/>
         <v>0.34090909090909088</v>
       </c>
       <c r="K70">
@@ -4808,19 +4291,11 @@
         <v>82857142.857142851</v>
       </c>
       <c r="M70">
-        <f t="shared" si="7"/>
-        <v>0.64163663196051346</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="8"/>
-        <v>0.92568598698212978</v>
-      </c>
-      <c r="O70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>86</v>
       </c>
@@ -4846,11 +4321,11 @@
         <v>25</v>
       </c>
       <c r="I71">
-        <f>(H71/(G71+H71))</f>
+        <f t="shared" si="9"/>
         <v>0.65789473684210531</v>
       </c>
       <c r="J71">
-        <f>(G71/(G71+H71))</f>
+        <f t="shared" si="10"/>
         <v>0.34210526315789475</v>
       </c>
       <c r="K71">
@@ -4862,19 +4337,11 @@
         <v>71428571.428571418</v>
       </c>
       <c r="M71">
-        <f t="shared" si="7"/>
-        <v>0.64242202107625412</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="8"/>
-        <v>0.92681906396457703</v>
-      </c>
-      <c r="O71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>31</v>
       </c>
@@ -4900,11 +4367,11 @@
         <v>23</v>
       </c>
       <c r="I72">
-        <f>(H72/(G72+H72))</f>
+        <f t="shared" si="9"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="J72">
-        <f>(G72/(G72+H72))</f>
+        <f t="shared" si="10"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="K72">
@@ -4916,19 +4383,11 @@
         <v>65714285.714285709</v>
       </c>
       <c r="M72">
-        <f t="shared" si="7"/>
-        <v>0.64291243966580092</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="8"/>
-        <v>0.9275265884316759</v>
-      </c>
-      <c r="O72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>125</v>
       </c>
@@ -4954,11 +4413,11 @@
         <v>23</v>
       </c>
       <c r="I73">
-        <f>(H73/(G73+H73))</f>
+        <f t="shared" si="9"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="J73">
-        <f>(G73/(G73+H73))</f>
+        <f t="shared" si="10"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="K73">
@@ -4970,19 +4429,11 @@
         <v>65714285.714285709</v>
       </c>
       <c r="M73">
-        <f t="shared" si="7"/>
-        <v>0.64291243966580092</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="8"/>
-        <v>0.9275265884316759</v>
-      </c>
-      <c r="O73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>147</v>
       </c>
@@ -5008,11 +4459,11 @@
         <v>19</v>
       </c>
       <c r="I74">
-        <f>(H74/(G74+H74))</f>
+        <f t="shared" si="9"/>
         <v>0.65517241379310343</v>
       </c>
       <c r="J74">
-        <f>(G74/(G74+H74))</f>
+        <f t="shared" si="10"/>
         <v>0.34482758620689657</v>
       </c>
       <c r="K74">
@@ -5024,19 +4475,11 @@
         <v>54285714.285714284</v>
       </c>
       <c r="M74">
-        <f t="shared" si="7"/>
-        <v>0.64418577708637659</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="8"/>
-        <v>0.9293636260137188</v>
-      </c>
-      <c r="O74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
@@ -5062,35 +4505,27 @@
         <v>19</v>
       </c>
       <c r="I75">
-        <f>(H75/(G75+H75))</f>
+        <f t="shared" si="9"/>
         <v>0.65517241379310343</v>
       </c>
       <c r="J75">
-        <f>(G75/(G75+H75))</f>
+        <f t="shared" si="10"/>
         <v>0.34482758620689657</v>
       </c>
       <c r="K75">
-        <f t="shared" ref="K75:K138" si="10">(G75*10^(F75))/0.035</f>
+        <f t="shared" ref="K75:K138" si="12">(G75*10^(F75))/0.035</f>
         <v>28571428.571428567</v>
       </c>
       <c r="L75">
-        <f t="shared" ref="L75:L138" si="11">(H75*10^(F75))/0.035</f>
+        <f t="shared" ref="L75:L138" si="13">(H75*10^(F75))/0.035</f>
         <v>54285714.285714284</v>
       </c>
       <c r="M75">
-        <f t="shared" ref="M75:M138" si="12">((I75*LN(I75))+(J75*LN(J75)))*-1</f>
-        <v>0.64418577708637659</v>
-      </c>
-      <c r="N75">
-        <f t="shared" ref="N75:N138" si="13">M75/LN(2)</f>
-        <v>0.9293636260137188</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>96</v>
       </c>
@@ -5116,35 +4551,27 @@
         <v>32</v>
       </c>
       <c r="I76">
-        <f>(H76/(G76+H76))</f>
+        <f t="shared" si="9"/>
         <v>0.65306122448979587</v>
       </c>
       <c r="J76">
-        <f>(G76/(G76+H76))</f>
+        <f t="shared" si="10"/>
         <v>0.34693877551020408</v>
       </c>
       <c r="K76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>48571428.571428567</v>
       </c>
       <c r="L76">
+        <f t="shared" si="13"/>
+        <v>91428571.428571418</v>
+      </c>
+      <c r="M76">
         <f t="shared" si="11"/>
-        <v>91428571.428571418</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="12"/>
-        <v>0.64553099732395469</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="13"/>
-        <v>0.93130436857937615</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="9"/>
         <v>49</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>181</v>
       </c>
@@ -5170,35 +4597,27 @@
         <v>32</v>
       </c>
       <c r="I77">
-        <f>(H77/(G77+H77))</f>
+        <f t="shared" si="9"/>
         <v>0.65306122448979587</v>
       </c>
       <c r="J77">
-        <f>(G77/(G77+H77))</f>
+        <f t="shared" si="10"/>
         <v>0.34693877551020408</v>
       </c>
       <c r="K77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>48571428.571428567</v>
       </c>
       <c r="L77">
+        <f t="shared" si="13"/>
+        <v>91428571.428571418</v>
+      </c>
+      <c r="M77">
         <f t="shared" si="11"/>
-        <v>91428571.428571418</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="12"/>
-        <v>0.64553099732395469</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="13"/>
-        <v>0.93130436857937615</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="9"/>
         <v>49</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>165</v>
       </c>
@@ -5224,35 +4643,27 @@
         <v>26</v>
       </c>
       <c r="I78">
-        <f>(H78/(G78+H78))</f>
+        <f t="shared" si="9"/>
         <v>0.65</v>
       </c>
       <c r="J78">
-        <f>(G78/(G78+H78))</f>
+        <f t="shared" si="10"/>
         <v>0.35</v>
       </c>
       <c r="K78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>39999999.999999993</v>
       </c>
       <c r="L78">
+        <f t="shared" si="13"/>
+        <v>74285714.285714284</v>
+      </c>
+      <c r="M78">
         <f t="shared" si="11"/>
-        <v>74285714.285714284</v>
-      </c>
-      <c r="M78">
-        <f t="shared" si="12"/>
-        <v>0.64744663903463251</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="13"/>
-        <v>0.93406805537549109</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="9"/>
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>178</v>
       </c>
@@ -5278,37 +4689,29 @@
         <v>24</v>
       </c>
       <c r="I79">
-        <f>(H79/(G79+H79))</f>
+        <f t="shared" si="9"/>
         <v>0.64864864864864868</v>
       </c>
       <c r="J79">
-        <f>(G79/(G79+H79))</f>
+        <f t="shared" si="10"/>
         <v>0.35135135135135137</v>
       </c>
       <c r="K79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>37142857.142857142</v>
       </c>
       <c r="L79">
+        <f t="shared" si="13"/>
+        <v>68571428.571428567</v>
+      </c>
+      <c r="M79">
         <f t="shared" si="11"/>
-        <v>68571428.571428567</v>
-      </c>
-      <c r="M79">
-        <f t="shared" si="12"/>
-        <v>0.64827916736447655</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="13"/>
-        <v>0.93526913986835669</v>
-      </c>
-      <c r="O79">
-        <f t="shared" si="9"/>
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>8</v>
@@ -5332,35 +4735,27 @@
         <v>31</v>
       </c>
       <c r="I80">
-        <f>(H80/(G80+H80))</f>
+        <f t="shared" si="9"/>
         <v>0.64583333333333337</v>
       </c>
       <c r="J80">
-        <f>(G80/(G80+H80))</f>
+        <f t="shared" si="10"/>
         <v>0.35416666666666669</v>
       </c>
       <c r="K80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>48571428.571428567</v>
       </c>
       <c r="L80">
+        <f t="shared" si="13"/>
+        <v>88571428.571428567</v>
+      </c>
+      <c r="M80">
         <f t="shared" si="11"/>
-        <v>88571428.571428567</v>
-      </c>
-      <c r="M80">
-        <f t="shared" si="12"/>
-        <v>0.64998788199132407</v>
-      </c>
-      <c r="N80">
-        <f t="shared" si="13"/>
-        <v>0.93773429398680408</v>
-      </c>
-      <c r="O80">
-        <f t="shared" si="9"/>
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>150</v>
       </c>
@@ -5386,35 +4781,27 @@
         <v>27</v>
       </c>
       <c r="I81">
-        <f>(H81/(G81+H81))</f>
+        <f t="shared" si="9"/>
         <v>0.6428571428571429</v>
       </c>
       <c r="J81">
-        <f>(G81/(G81+H81))</f>
+        <f t="shared" si="10"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="K81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>42857142.857142851</v>
       </c>
       <c r="L81">
+        <f t="shared" si="13"/>
+        <v>77142857.142857134</v>
+      </c>
+      <c r="M81">
         <f t="shared" si="11"/>
-        <v>77142857.142857134</v>
-      </c>
-      <c r="M81">
-        <f t="shared" si="12"/>
-        <v>0.65175656117265313</v>
-      </c>
-      <c r="N81">
-        <f t="shared" si="13"/>
-        <v>0.94028595867063103</v>
-      </c>
-      <c r="O81">
-        <f t="shared" si="9"/>
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>78</v>
       </c>
@@ -5440,35 +4827,27 @@
         <v>14</v>
       </c>
       <c r="I82">
-        <f>(H82/(G82+H82))</f>
+        <f t="shared" si="9"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="J82">
-        <f>(G82/(G82+H82))</f>
+        <f t="shared" si="10"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="K82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>22857142.857142854</v>
       </c>
       <c r="L82">
+        <f t="shared" si="13"/>
+        <v>39999999.999999993</v>
+      </c>
+      <c r="M82">
         <f t="shared" si="11"/>
-        <v>39999999.999999993</v>
-      </c>
-      <c r="M82">
-        <f t="shared" si="12"/>
-        <v>0.65548177390139273</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="13"/>
-        <v>0.9456603046006401</v>
-      </c>
-      <c r="O82">
-        <f t="shared" si="9"/>
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>149</v>
       </c>
@@ -5494,35 +4873,27 @@
         <v>29</v>
       </c>
       <c r="I83">
-        <f>(H83/(G83+H83))</f>
+        <f t="shared" si="9"/>
         <v>0.63043478260869568</v>
       </c>
       <c r="J83">
-        <f>(G83/(G83+H83))</f>
+        <f t="shared" si="10"/>
         <v>0.36956521739130432</v>
       </c>
       <c r="K83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>48571428.571428567</v>
       </c>
       <c r="L83">
+        <f t="shared" si="13"/>
+        <v>82857142.857142851</v>
+      </c>
+      <c r="M83">
         <f t="shared" si="11"/>
-        <v>82857142.857142851</v>
-      </c>
-      <c r="M83">
-        <f t="shared" si="12"/>
-        <v>0.65872387652032494</v>
-      </c>
-      <c r="N83">
-        <f t="shared" si="13"/>
-        <v>0.95033766997102664</v>
-      </c>
-      <c r="O83">
-        <f t="shared" si="9"/>
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>111</v>
       </c>
@@ -5548,35 +4919,27 @@
         <v>22</v>
       </c>
       <c r="I84">
-        <f>(H84/(G84+H84))</f>
+        <f t="shared" si="9"/>
         <v>0.62857142857142856</v>
       </c>
       <c r="J84">
-        <f>(G84/(G84+H84))</f>
+        <f t="shared" si="10"/>
         <v>0.37142857142857144</v>
       </c>
       <c r="K84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>37142857.142857142</v>
       </c>
       <c r="L84">
+        <f t="shared" si="13"/>
+        <v>62857142.857142851</v>
+      </c>
+      <c r="M84">
         <f t="shared" si="11"/>
-        <v>62857142.857142851</v>
-      </c>
-      <c r="M84">
-        <f t="shared" si="12"/>
-        <v>0.65971161517847299</v>
-      </c>
-      <c r="N84">
-        <f t="shared" si="13"/>
-        <v>0.95176267563483119</v>
-      </c>
-      <c r="O84">
-        <f t="shared" si="9"/>
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>82</v>
       </c>
@@ -5602,35 +4965,27 @@
         <v>27</v>
       </c>
       <c r="I85">
-        <f>(H85/(G85+H85))</f>
+        <f t="shared" si="9"/>
         <v>0.62790697674418605</v>
       </c>
       <c r="J85">
-        <f>(G85/(G85+H85))</f>
+        <f t="shared" si="10"/>
         <v>0.37209302325581395</v>
       </c>
       <c r="K85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>45714285.714285709</v>
       </c>
       <c r="L85">
+        <f t="shared" si="13"/>
+        <v>77142857.142857134</v>
+      </c>
+      <c r="M85">
         <f t="shared" si="11"/>
-        <v>77142857.142857134</v>
-      </c>
-      <c r="M85">
-        <f t="shared" si="12"/>
-        <v>0.66006023341557674</v>
-      </c>
-      <c r="N85">
-        <f t="shared" si="13"/>
-        <v>0.95226562543666426</v>
-      </c>
-      <c r="O85">
-        <f t="shared" si="9"/>
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>91</v>
       </c>
@@ -5656,35 +5011,27 @@
         <v>25</v>
       </c>
       <c r="I86">
-        <f>(H86/(G86+H86))</f>
+        <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
       <c r="J86">
-        <f>(G86/(G86+H86))</f>
+        <f t="shared" si="10"/>
         <v>0.375</v>
       </c>
       <c r="K86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>42857142.857142851</v>
       </c>
       <c r="L86">
+        <f t="shared" si="13"/>
+        <v>71428571.428571418</v>
+      </c>
+      <c r="M86">
         <f t="shared" si="11"/>
-        <v>71428571.428571418</v>
-      </c>
-      <c r="M86">
-        <f t="shared" si="12"/>
-        <v>0.66156323815798213</v>
-      </c>
-      <c r="N86">
-        <f t="shared" si="13"/>
-        <v>0.95443400292496505</v>
-      </c>
-      <c r="O86">
-        <f t="shared" si="9"/>
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>177</v>
       </c>
@@ -5710,35 +5057,27 @@
         <v>25</v>
       </c>
       <c r="I87">
-        <f>(H87/(G87+H87))</f>
+        <f t="shared" si="9"/>
         <v>0.625</v>
       </c>
       <c r="J87">
-        <f>(G87/(G87+H87))</f>
+        <f t="shared" si="10"/>
         <v>0.375</v>
       </c>
       <c r="K87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>42857142.857142851</v>
       </c>
       <c r="L87">
+        <f t="shared" si="13"/>
+        <v>71428571.428571418</v>
+      </c>
+      <c r="M87">
         <f t="shared" si="11"/>
-        <v>71428571.428571418</v>
-      </c>
-      <c r="M87">
-        <f t="shared" si="12"/>
-        <v>0.66156323815798213</v>
-      </c>
-      <c r="N87">
-        <f t="shared" si="13"/>
-        <v>0.95443400292496505</v>
-      </c>
-      <c r="O87">
-        <f t="shared" si="9"/>
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>17</v>
       </c>
@@ -5764,35 +5103,27 @@
         <v>26</v>
       </c>
       <c r="I88">
-        <f>(H88/(G88+H88))</f>
+        <f t="shared" si="9"/>
         <v>0.61904761904761907</v>
       </c>
       <c r="J88">
-        <f>(G88/(G88+H88))</f>
+        <f t="shared" si="10"/>
         <v>0.38095238095238093</v>
       </c>
       <c r="K88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>45714285.714285709</v>
       </c>
       <c r="L88">
+        <f t="shared" si="13"/>
+        <v>74285714.285714284</v>
+      </c>
+      <c r="M88">
         <f t="shared" si="11"/>
-        <v>74285714.285714284</v>
-      </c>
-      <c r="M88">
-        <f t="shared" si="12"/>
-        <v>0.66452843865491507</v>
-      </c>
-      <c r="N88">
-        <f t="shared" si="13"/>
-        <v>0.95871188297713172</v>
-      </c>
-      <c r="O88">
-        <f t="shared" si="9"/>
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>112</v>
       </c>
@@ -5818,35 +5149,27 @@
         <v>32</v>
       </c>
       <c r="I89">
-        <f>(H89/(G89+H89))</f>
+        <f t="shared" si="9"/>
         <v>0.61538461538461542</v>
       </c>
       <c r="J89">
-        <f>(G89/(G89+H89))</f>
+        <f t="shared" si="10"/>
         <v>0.38461538461538464</v>
       </c>
       <c r="K89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>57142857.142857134</v>
       </c>
       <c r="L89">
+        <f t="shared" si="13"/>
+        <v>91428571.428571418</v>
+      </c>
+      <c r="M89">
         <f t="shared" si="11"/>
-        <v>91428571.428571418</v>
-      </c>
-      <c r="M89">
-        <f t="shared" si="12"/>
-        <v>0.66627844241467604</v>
-      </c>
-      <c r="N89">
-        <f t="shared" si="13"/>
-        <v>0.96123660472287598</v>
-      </c>
-      <c r="O89">
-        <f t="shared" si="9"/>
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>23</v>
       </c>
@@ -5872,35 +5195,27 @@
         <v>16</v>
       </c>
       <c r="I90">
-        <f>(H90/(G90+H90))</f>
+        <f t="shared" si="9"/>
         <v>0.61538461538461542</v>
       </c>
       <c r="J90">
-        <f>(G90/(G90+H90))</f>
+        <f t="shared" si="10"/>
         <v>0.38461538461538464</v>
       </c>
       <c r="K90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28571428.571428567</v>
       </c>
       <c r="L90">
+        <f t="shared" si="13"/>
+        <v>45714285.714285709</v>
+      </c>
+      <c r="M90">
         <f t="shared" si="11"/>
-        <v>45714285.714285709</v>
-      </c>
-      <c r="M90">
-        <f t="shared" si="12"/>
-        <v>0.66627844241467604</v>
-      </c>
-      <c r="N90">
-        <f t="shared" si="13"/>
-        <v>0.96123660472287598</v>
-      </c>
-      <c r="O90">
-        <f t="shared" si="9"/>
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
@@ -5926,35 +5241,27 @@
         <v>27</v>
       </c>
       <c r="I91">
-        <f>(H91/(G91+H91))</f>
+        <f t="shared" si="9"/>
         <v>0.61363636363636365</v>
       </c>
       <c r="J91">
-        <f>(G91/(G91+H91))</f>
+        <f t="shared" si="10"/>
         <v>0.38636363636363635</v>
       </c>
       <c r="K91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>48571428.571428567</v>
       </c>
       <c r="L91">
+        <f t="shared" si="13"/>
+        <v>77142857.142857134</v>
+      </c>
+      <c r="M91">
         <f t="shared" si="11"/>
-        <v>77142857.142857134</v>
-      </c>
-      <c r="M91">
-        <f t="shared" si="12"/>
-        <v>0.6670936741211575</v>
-      </c>
-      <c r="N91">
-        <f t="shared" si="13"/>
-        <v>0.96241273546299222</v>
-      </c>
-      <c r="O91">
-        <f t="shared" si="9"/>
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>72</v>
       </c>
@@ -5980,35 +5287,27 @@
         <v>22</v>
       </c>
       <c r="I92">
-        <f>(H92/(G92+H92))</f>
+        <f t="shared" si="9"/>
         <v>0.61111111111111116</v>
       </c>
       <c r="J92">
-        <f>(G92/(G92+H92))</f>
+        <f t="shared" si="10"/>
         <v>0.3888888888888889</v>
       </c>
       <c r="K92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>39999999.999999993</v>
       </c>
       <c r="L92">
+        <f t="shared" si="13"/>
+        <v>62857142.857142851</v>
+      </c>
+      <c r="M92">
         <f t="shared" si="11"/>
-        <v>62857142.857142851</v>
-      </c>
-      <c r="M92">
-        <f t="shared" si="12"/>
-        <v>0.66824847766453854</v>
-      </c>
-      <c r="N92">
-        <f t="shared" si="13"/>
-        <v>0.96407876480822896</v>
-      </c>
-      <c r="O92">
-        <f t="shared" si="9"/>
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6034,35 +5333,27 @@
         <v>22</v>
       </c>
       <c r="I93">
-        <f>(H93/(G93+H93))</f>
+        <f t="shared" si="9"/>
         <v>0.61111111111111116</v>
       </c>
       <c r="J93">
-        <f>(G93/(G93+H93))</f>
+        <f t="shared" si="10"/>
         <v>0.3888888888888889</v>
       </c>
       <c r="K93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>39999999.999999993</v>
       </c>
       <c r="L93">
+        <f t="shared" si="13"/>
+        <v>62857142.857142851</v>
+      </c>
+      <c r="M93">
         <f t="shared" si="11"/>
-        <v>62857142.857142851</v>
-      </c>
-      <c r="M93">
-        <f t="shared" si="12"/>
-        <v>0.66824847766453854</v>
-      </c>
-      <c r="N93">
-        <f t="shared" si="13"/>
-        <v>0.96407876480822896</v>
-      </c>
-      <c r="O93">
-        <f t="shared" si="9"/>
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>115</v>
       </c>
@@ -6088,35 +5379,27 @@
         <v>28</v>
       </c>
       <c r="I94">
-        <f>(H94/(G94+H94))</f>
+        <f t="shared" si="9"/>
         <v>0.60869565217391308</v>
       </c>
       <c r="J94">
-        <f>(G94/(G94+H94))</f>
+        <f t="shared" si="10"/>
         <v>0.39130434782608697</v>
       </c>
       <c r="K94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>51428571.428571425</v>
       </c>
       <c r="L94">
+        <f t="shared" si="13"/>
+        <v>79999999.999999985</v>
+      </c>
+      <c r="M94">
         <f t="shared" si="11"/>
-        <v>79999999.999999985</v>
-      </c>
-      <c r="M94">
-        <f t="shared" si="12"/>
-        <v>0.66932796329264543</v>
-      </c>
-      <c r="N94">
-        <f t="shared" si="13"/>
-        <v>0.96563613337060972</v>
-      </c>
-      <c r="O94">
-        <f t="shared" si="9"/>
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>120</v>
       </c>
@@ -6142,35 +5425,27 @@
         <v>17</v>
       </c>
       <c r="I95">
-        <f>(H95/(G95+H95))</f>
+        <f t="shared" si="9"/>
         <v>0.6071428571428571</v>
       </c>
       <c r="J95">
-        <f>(G95/(G95+H95))</f>
+        <f t="shared" si="10"/>
         <v>0.39285714285714285</v>
       </c>
       <c r="K95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>31428571.428571425</v>
       </c>
       <c r="L95">
+        <f t="shared" si="13"/>
+        <v>48571428.571428567</v>
+      </c>
+      <c r="M95">
         <f t="shared" si="11"/>
-        <v>48571428.571428567</v>
-      </c>
-      <c r="M95">
-        <f t="shared" si="12"/>
-        <v>0.67000897982742713</v>
-      </c>
-      <c r="N95">
-        <f t="shared" si="13"/>
-        <v>0.96661863254810265</v>
-      </c>
-      <c r="O95">
-        <f t="shared" si="9"/>
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>105</v>
       </c>
@@ -6196,35 +5471,27 @@
         <v>23</v>
       </c>
       <c r="I96">
-        <f>(H96/(G96+H96))</f>
+        <f t="shared" si="9"/>
         <v>0.60526315789473684</v>
       </c>
       <c r="J96">
-        <f>(G96/(G96+H96))</f>
+        <f t="shared" si="10"/>
         <v>0.39473684210526316</v>
       </c>
       <c r="K96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>42857142.857142851</v>
       </c>
       <c r="L96">
+        <f t="shared" si="13"/>
+        <v>65714285.714285709</v>
+      </c>
+      <c r="M96">
         <f t="shared" si="11"/>
-        <v>65714285.714285709</v>
-      </c>
-      <c r="M96">
-        <f t="shared" si="12"/>
-        <v>0.67081984438681752</v>
-      </c>
-      <c r="N96">
-        <f t="shared" si="13"/>
-        <v>0.96778846282676778</v>
-      </c>
-      <c r="O96">
-        <f t="shared" si="9"/>
         <v>38</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>140</v>
       </c>
@@ -6250,35 +5517,27 @@
         <v>48</v>
       </c>
       <c r="I97">
-        <f>(H97/(G97+H97))</f>
+        <f t="shared" si="9"/>
         <v>0.6</v>
       </c>
       <c r="J97">
-        <f>(G97/(G97+H97))</f>
+        <f t="shared" si="10"/>
         <v>0.4</v>
       </c>
       <c r="K97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>91428571.428571418</v>
       </c>
       <c r="L97">
+        <f t="shared" si="13"/>
+        <v>137142857.14285713</v>
+      </c>
+      <c r="M97">
         <f t="shared" si="11"/>
-        <v>137142857.14285713</v>
-      </c>
-      <c r="M97">
-        <f t="shared" si="12"/>
-        <v>0.67301166700925652</v>
-      </c>
-      <c r="N97">
-        <f t="shared" si="13"/>
-        <v>0.9709505944546688</v>
-      </c>
-      <c r="O97">
-        <f t="shared" si="9"/>
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>33</v>
       </c>
@@ -6304,35 +5563,27 @@
         <v>15</v>
       </c>
       <c r="I98">
-        <f>(H98/(G98+H98))</f>
+        <f t="shared" ref="I98:I129" si="14">(H98/(G98+H98))</f>
         <v>0.6</v>
       </c>
       <c r="J98">
-        <f>(G98/(G98+H98))</f>
+        <f t="shared" ref="J98:J129" si="15">(G98/(G98+H98))</f>
         <v>0.4</v>
       </c>
       <c r="K98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28571428.571428567</v>
       </c>
       <c r="L98">
+        <f t="shared" si="13"/>
+        <v>42857142.857142851</v>
+      </c>
+      <c r="M98">
         <f t="shared" si="11"/>
-        <v>42857142.857142851</v>
-      </c>
-      <c r="M98">
-        <f t="shared" si="12"/>
-        <v>0.67301166700925652</v>
-      </c>
-      <c r="N98">
-        <f t="shared" si="13"/>
-        <v>0.9709505944546688</v>
-      </c>
-      <c r="O98">
-        <f t="shared" si="9"/>
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>151</v>
       </c>
@@ -6358,35 +5609,27 @@
         <v>28</v>
       </c>
       <c r="I99">
-        <f>(H99/(G99+H99))</f>
+        <f t="shared" si="14"/>
         <v>0.5957446808510638</v>
       </c>
       <c r="J99">
-        <f>(G99/(G99+H99))</f>
+        <f t="shared" si="15"/>
         <v>0.40425531914893614</v>
       </c>
       <c r="K99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>54285714.285714284</v>
       </c>
       <c r="L99">
+        <f t="shared" si="13"/>
+        <v>79999999.999999985</v>
+      </c>
+      <c r="M99">
         <f t="shared" si="11"/>
-        <v>79999999.999999985</v>
-      </c>
-      <c r="M99">
-        <f t="shared" si="12"/>
-        <v>0.67469937002775904</v>
-      </c>
-      <c r="N99">
-        <f t="shared" si="13"/>
-        <v>0.97338543522995569</v>
-      </c>
-      <c r="O99">
-        <f t="shared" si="9"/>
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>97</v>
       </c>
@@ -6412,35 +5655,27 @@
         <v>25</v>
       </c>
       <c r="I100">
-        <f>(H100/(G100+H100))</f>
+        <f t="shared" si="14"/>
         <v>0.59523809523809523</v>
       </c>
       <c r="J100">
-        <f>(G100/(G100+H100))</f>
+        <f t="shared" si="15"/>
         <v>0.40476190476190477</v>
       </c>
       <c r="K100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>48571428.571428567</v>
       </c>
       <c r="L100">
+        <f t="shared" si="13"/>
+        <v>71428571.428571418</v>
+      </c>
+      <c r="M100">
         <f t="shared" si="11"/>
-        <v>71428571.428571418</v>
-      </c>
-      <c r="M100">
-        <f t="shared" si="12"/>
-        <v>0.67489527374382807</v>
-      </c>
-      <c r="N100">
-        <f t="shared" si="13"/>
-        <v>0.97366806454962018</v>
-      </c>
-      <c r="O100">
-        <f t="shared" si="9"/>
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>70</v>
       </c>
@@ -6466,35 +5701,27 @@
         <v>19</v>
       </c>
       <c r="I101">
-        <f>(H101/(G101+H101))</f>
+        <f t="shared" si="14"/>
         <v>0.59375</v>
       </c>
       <c r="J101">
-        <f>(G101/(G101+H101))</f>
+        <f t="shared" si="15"/>
         <v>0.40625</v>
       </c>
       <c r="K101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>37142857.142857142</v>
       </c>
       <c r="L101">
+        <f t="shared" si="13"/>
+        <v>54285714.285714284</v>
+      </c>
+      <c r="M101">
         <f t="shared" si="11"/>
-        <v>54285714.285714284</v>
-      </c>
-      <c r="M101">
-        <f t="shared" si="12"/>
-        <v>0.67546458245090313</v>
-      </c>
-      <c r="N101">
-        <f t="shared" si="13"/>
-        <v>0.97448940339805235</v>
-      </c>
-      <c r="O101">
-        <f t="shared" si="9"/>
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>61</v>
       </c>
@@ -6520,35 +5747,27 @@
         <v>32</v>
       </c>
       <c r="I102">
-        <f>(H102/(G102+H102))</f>
+        <f t="shared" si="14"/>
         <v>0.59259259259259256</v>
       </c>
       <c r="J102">
-        <f>(G102/(G102+H102))</f>
+        <f t="shared" si="15"/>
         <v>0.40740740740740738</v>
       </c>
       <c r="K102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>62857142.857142851</v>
       </c>
       <c r="L102">
+        <f t="shared" si="13"/>
+        <v>91428571.428571418</v>
+      </c>
+      <c r="M102">
         <f t="shared" si="11"/>
-        <v>91428571.428571418</v>
-      </c>
-      <c r="M102">
-        <f t="shared" si="12"/>
-        <v>0.67590103057401141</v>
-      </c>
-      <c r="N102">
-        <f t="shared" si="13"/>
-        <v>0.97511906494086598</v>
-      </c>
-      <c r="O102">
-        <f t="shared" si="9"/>
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>107</v>
       </c>
@@ -6574,35 +5793,27 @@
         <v>20</v>
       </c>
       <c r="I103">
-        <f>(H103/(G103+H103))</f>
+        <f t="shared" si="14"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="J103">
-        <f>(G103/(G103+H103))</f>
+        <f t="shared" si="15"/>
         <v>0.41176470588235292</v>
       </c>
       <c r="K103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>39999999.999999993</v>
       </c>
       <c r="L103">
+        <f t="shared" si="13"/>
+        <v>57142857.142857134</v>
+      </c>
+      <c r="M103">
         <f t="shared" si="11"/>
-        <v>57142857.142857134</v>
-      </c>
-      <c r="M103">
-        <f t="shared" si="12"/>
-        <v>0.67749440444870723</v>
-      </c>
-      <c r="N103">
-        <f t="shared" si="13"/>
-        <v>0.97741781752817158</v>
-      </c>
-      <c r="O103">
-        <f t="shared" si="9"/>
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>10</v>
       </c>
@@ -6628,35 +5839,27 @@
         <v>21</v>
       </c>
       <c r="I104">
-        <f>(H104/(G104+H104))</f>
+        <f t="shared" si="14"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="J104">
-        <f>(G104/(G104+H104))</f>
+        <f t="shared" si="15"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="K104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>42857142.857142851</v>
       </c>
       <c r="L104">
+        <f t="shared" si="13"/>
+        <v>59999999.999999993</v>
+      </c>
+      <c r="M104">
         <f t="shared" si="11"/>
-        <v>59999999.999999993</v>
-      </c>
-      <c r="M104">
-        <f t="shared" si="12"/>
-        <v>0.67919326599152563</v>
-      </c>
-      <c r="N104">
-        <f t="shared" si="13"/>
-        <v>0.97986875665115269</v>
-      </c>
-      <c r="O104">
-        <f t="shared" si="9"/>
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>20</v>
       </c>
@@ -6682,35 +5885,27 @@
         <v>26</v>
       </c>
       <c r="I105">
-        <f>(H105/(G105+H105))</f>
+        <f t="shared" si="14"/>
         <v>0.57777777777777772</v>
       </c>
       <c r="J105">
-        <f>(G105/(G105+H105))</f>
+        <f t="shared" si="15"/>
         <v>0.42222222222222222</v>
       </c>
       <c r="K105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>54285714.285714284</v>
       </c>
       <c r="L105">
+        <f t="shared" si="13"/>
+        <v>74285714.285714284</v>
+      </c>
+      <c r="M105">
         <f t="shared" si="11"/>
-        <v>74285714.285714284</v>
-      </c>
-      <c r="M105">
-        <f t="shared" si="12"/>
-        <v>0.68099914326541078</v>
-      </c>
-      <c r="N105">
-        <f t="shared" si="13"/>
-        <v>0.9824740868386409</v>
-      </c>
-      <c r="O105">
-        <f t="shared" si="9"/>
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>135</v>
       </c>
@@ -6736,35 +5931,27 @@
         <v>23</v>
       </c>
       <c r="I106">
-        <f>(H106/(G106+H106))</f>
+        <f t="shared" si="14"/>
         <v>0.57499999999999996</v>
       </c>
       <c r="J106">
-        <f>(G106/(G106+H106))</f>
+        <f t="shared" si="15"/>
         <v>0.42499999999999999</v>
       </c>
       <c r="K106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>48571428.571428567</v>
       </c>
       <c r="L106">
+        <f t="shared" si="13"/>
+        <v>65714285.714285709</v>
+      </c>
+      <c r="M106">
         <f t="shared" si="11"/>
-        <v>65714285.714285709</v>
-      </c>
-      <c r="M106">
-        <f t="shared" si="12"/>
-        <v>0.68185460873078341</v>
-      </c>
-      <c r="N106">
-        <f t="shared" si="13"/>
-        <v>0.98370826262318578</v>
-      </c>
-      <c r="O106">
-        <f t="shared" si="9"/>
         <v>40</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>132</v>
       </c>
@@ -6790,35 +5977,27 @@
         <v>16</v>
       </c>
       <c r="I107">
-        <f>(H107/(G107+H107))</f>
+        <f t="shared" si="14"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="J107">
-        <f>(G107/(G107+H107))</f>
+        <f t="shared" si="15"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="K107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>34285714.285714284</v>
       </c>
       <c r="L107">
+        <f t="shared" si="13"/>
+        <v>45714285.714285709</v>
+      </c>
+      <c r="M107">
         <f t="shared" si="11"/>
-        <v>45714285.714285709</v>
-      </c>
-      <c r="M107">
-        <f t="shared" si="12"/>
-        <v>0.6829081047004717</v>
-      </c>
-      <c r="N107">
-        <f t="shared" si="13"/>
-        <v>0.98522813603425152</v>
-      </c>
-      <c r="O107">
-        <f t="shared" si="9"/>
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>67</v>
       </c>
@@ -6844,35 +6023,27 @@
         <v>25</v>
       </c>
       <c r="I108">
-        <f>(H108/(G108+H108))</f>
+        <f t="shared" si="14"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="J108">
-        <f>(G108/(G108+H108))</f>
+        <f t="shared" si="15"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="K108">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>57142857.142857134</v>
       </c>
       <c r="L108">
+        <f t="shared" si="13"/>
+        <v>71428571.428571418</v>
+      </c>
+      <c r="M108">
         <f t="shared" si="11"/>
-        <v>71428571.428571418</v>
-      </c>
-      <c r="M108">
-        <f t="shared" si="12"/>
-        <v>0.68696157659732338</v>
-      </c>
-      <c r="N108">
-        <f t="shared" si="13"/>
-        <v>0.99107605983822222</v>
-      </c>
-      <c r="O108">
-        <f t="shared" si="9"/>
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>133</v>
       </c>
@@ -6898,37 +6069,29 @@
         <v>20</v>
       </c>
       <c r="I109">
-        <f>(H109/(G109+H109))</f>
+        <f t="shared" si="14"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="J109">
-        <f>(G109/(G109+H109))</f>
+        <f t="shared" si="15"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="K109">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>45714285.714285709</v>
       </c>
       <c r="L109">
+        <f t="shared" si="13"/>
+        <v>57142857.142857134</v>
+      </c>
+      <c r="M109">
         <f t="shared" si="11"/>
-        <v>57142857.142857134</v>
-      </c>
-      <c r="M109">
-        <f t="shared" si="12"/>
-        <v>0.68696157659732338</v>
-      </c>
-      <c r="N109">
-        <f t="shared" si="13"/>
-        <v>0.99107605983822222</v>
-      </c>
-      <c r="O109">
-        <f t="shared" si="9"/>
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>8</v>
@@ -6952,35 +6115,27 @@
         <v>21</v>
       </c>
       <c r="I110">
-        <f>(H110/(G110+H110))</f>
+        <f t="shared" si="14"/>
         <v>0.55263157894736847</v>
       </c>
       <c r="J110">
-        <f>(G110/(G110+H110))</f>
+        <f t="shared" si="15"/>
         <v>0.44736842105263158</v>
       </c>
       <c r="K110">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>48571428.571428567</v>
       </c>
       <c r="L110">
+        <f t="shared" si="13"/>
+        <v>59999999.999999993</v>
+      </c>
+      <c r="M110">
         <f t="shared" si="11"/>
-        <v>59999999.999999993</v>
-      </c>
-      <c r="M110">
-        <f t="shared" si="12"/>
-        <v>0.68759673759092377</v>
-      </c>
-      <c r="N110">
-        <f t="shared" si="13"/>
-        <v>0.99199240345385564</v>
-      </c>
-      <c r="O110">
-        <f t="shared" si="9"/>
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>80</v>
       </c>
@@ -7006,35 +6161,27 @@
         <v>22</v>
       </c>
       <c r="I111">
-        <f>(H111/(G111+H111))</f>
+        <f t="shared" si="14"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="J111">
-        <f>(G111/(G111+H111))</f>
+        <f t="shared" si="15"/>
         <v>0.45</v>
       </c>
       <c r="K111">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>51428571.428571425</v>
       </c>
       <c r="L111">
+        <f t="shared" si="13"/>
+        <v>62857142.857142851</v>
+      </c>
+      <c r="M111">
         <f t="shared" si="11"/>
-        <v>62857142.857142851</v>
-      </c>
-      <c r="M111">
-        <f t="shared" si="12"/>
-        <v>0.68813881371358843</v>
-      </c>
-      <c r="N111">
-        <f t="shared" si="13"/>
-        <v>0.99277445398780828</v>
-      </c>
-      <c r="O111">
-        <f t="shared" si="9"/>
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>142</v>
       </c>
@@ -7060,35 +6207,27 @@
         <v>23</v>
       </c>
       <c r="I112">
-        <f>(H112/(G112+H112))</f>
+        <f t="shared" si="14"/>
         <v>0.54761904761904767</v>
       </c>
       <c r="J112">
-        <f>(G112/(G112+H112))</f>
+        <f t="shared" si="15"/>
         <v>0.45238095238095238</v>
       </c>
       <c r="K112">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>54285714.285714284</v>
       </c>
       <c r="L112">
+        <f t="shared" si="13"/>
+        <v>65714285.714285709</v>
+      </c>
+      <c r="M112">
         <f t="shared" si="11"/>
-        <v>65714285.714285709</v>
-      </c>
-      <c r="M112">
-        <f t="shared" si="12"/>
-        <v>0.68860515231830133</v>
-      </c>
-      <c r="N112">
-        <f t="shared" si="13"/>
-        <v>0.99344723838020266</v>
-      </c>
-      <c r="O112">
-        <f t="shared" si="9"/>
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>148</v>
       </c>
@@ -7114,35 +6253,27 @@
         <v>18</v>
       </c>
       <c r="I113">
-        <f>(H113/(G113+H113))</f>
+        <f t="shared" si="14"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="J113">
-        <f>(G113/(G113+H113))</f>
+        <f t="shared" si="15"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="K113">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>42857142.857142851</v>
       </c>
       <c r="L113">
+        <f t="shared" si="13"/>
+        <v>51428571.428571425</v>
+      </c>
+      <c r="M113">
         <f t="shared" si="11"/>
-        <v>51428571.428571425</v>
-      </c>
-      <c r="M113">
-        <f t="shared" si="12"/>
-        <v>0.68900923847665863</v>
-      </c>
-      <c r="N113">
-        <f t="shared" si="13"/>
-        <v>0.99403021147695658</v>
-      </c>
-      <c r="O113">
-        <f t="shared" si="9"/>
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>164</v>
       </c>
@@ -7168,35 +6299,27 @@
         <v>29</v>
       </c>
       <c r="I114">
-        <f>(H114/(G114+H114))</f>
+        <f t="shared" si="14"/>
         <v>0.53703703703703709</v>
       </c>
       <c r="J114">
-        <f>(G114/(G114+H114))</f>
+        <f t="shared" si="15"/>
         <v>0.46296296296296297</v>
       </c>
       <c r="K114">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>71428571.428571418</v>
       </c>
       <c r="L114">
+        <f t="shared" si="13"/>
+        <v>82857142.857142851</v>
+      </c>
+      <c r="M114">
         <f t="shared" si="11"/>
-        <v>82857142.857142851</v>
-      </c>
-      <c r="M114">
-        <f t="shared" si="12"/>
-        <v>0.69040118191033428</v>
-      </c>
-      <c r="N114">
-        <f t="shared" si="13"/>
-        <v>0.99603836136591839</v>
-      </c>
-      <c r="O114">
-        <f t="shared" si="9"/>
         <v>54</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>143</v>
       </c>
@@ -7222,35 +6345,27 @@
         <v>26</v>
       </c>
       <c r="I115">
-        <f>(H115/(G115+H115))</f>
+        <f t="shared" si="14"/>
         <v>0.53061224489795922</v>
       </c>
       <c r="J115">
-        <f>(G115/(G115+H115))</f>
+        <f t="shared" si="15"/>
         <v>0.46938775510204084</v>
       </c>
       <c r="K115">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>65714285.714285709</v>
       </c>
       <c r="L115">
+        <f t="shared" si="13"/>
+        <v>74285714.285714284</v>
+      </c>
+      <c r="M115">
         <f t="shared" si="11"/>
-        <v>74285714.285714284</v>
-      </c>
-      <c r="M115">
-        <f t="shared" si="12"/>
-        <v>0.69127178882636175</v>
-      </c>
-      <c r="N115">
-        <f t="shared" si="13"/>
-        <v>0.99729438164623485</v>
-      </c>
-      <c r="O115">
-        <f t="shared" si="9"/>
         <v>49</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>104</v>
       </c>
@@ -7276,35 +6391,27 @@
         <v>27</v>
       </c>
       <c r="I116">
-        <f>(H116/(G116+H116))</f>
+        <f t="shared" si="14"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="J116">
-        <f>(G116/(G116+H116))</f>
+        <f t="shared" si="15"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="K116">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>68571428.571428567</v>
       </c>
       <c r="L116">
+        <f t="shared" si="13"/>
+        <v>77142857.142857134</v>
+      </c>
+      <c r="M116">
         <f t="shared" si="11"/>
-        <v>77142857.142857134</v>
-      </c>
-      <c r="M116">
-        <f t="shared" si="12"/>
-        <v>0.69141607761711832</v>
-      </c>
-      <c r="N116">
-        <f t="shared" si="13"/>
-        <v>0.99750254636911528</v>
-      </c>
-      <c r="O116">
-        <f t="shared" si="9"/>
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>16</v>
       </c>
@@ -7330,35 +6437,27 @@
         <v>20</v>
       </c>
       <c r="I117">
-        <f>(H117/(G117+H117))</f>
+        <f t="shared" si="14"/>
         <v>0.52631578947368418</v>
       </c>
       <c r="J117">
-        <f>(G117/(G117+H117))</f>
+        <f t="shared" si="15"/>
         <v>0.47368421052631576</v>
       </c>
       <c r="K117">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>51428571.428571425</v>
       </c>
       <c r="L117">
+        <f t="shared" si="13"/>
+        <v>57142857.142857134</v>
+      </c>
+      <c r="M117">
         <f t="shared" si="11"/>
-        <v>57142857.142857134</v>
-      </c>
-      <c r="M117">
-        <f t="shared" si="12"/>
-        <v>0.69176149885241778</v>
-      </c>
-      <c r="N117">
-        <f t="shared" si="13"/>
-        <v>0.99800088387229946</v>
-      </c>
-      <c r="O117">
-        <f t="shared" si="9"/>
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>76</v>
       </c>
@@ -7384,35 +6483,27 @@
         <v>20</v>
       </c>
       <c r="I118">
-        <f>(H118/(G118+H118))</f>
+        <f t="shared" si="14"/>
         <v>0.52631578947368418</v>
       </c>
       <c r="J118">
-        <f>(G118/(G118+H118))</f>
+        <f t="shared" si="15"/>
         <v>0.47368421052631576</v>
       </c>
       <c r="K118">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>51428571.428571425</v>
       </c>
       <c r="L118">
+        <f t="shared" si="13"/>
+        <v>57142857.142857134</v>
+      </c>
+      <c r="M118">
         <f t="shared" si="11"/>
-        <v>57142857.142857134</v>
-      </c>
-      <c r="M118">
-        <f t="shared" si="12"/>
-        <v>0.69176149885241778</v>
-      </c>
-      <c r="N118">
-        <f t="shared" si="13"/>
-        <v>0.99800088387229946</v>
-      </c>
-      <c r="O118">
-        <f t="shared" si="9"/>
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>134</v>
       </c>
@@ -7438,35 +6529,27 @@
         <v>24</v>
       </c>
       <c r="I119">
-        <f>(H119/(G119+H119))</f>
+        <f t="shared" si="14"/>
         <v>0.52173913043478259</v>
       </c>
       <c r="J119">
-        <f>(G119/(G119+H119))</f>
+        <f t="shared" si="15"/>
         <v>0.47826086956521741</v>
       </c>
       <c r="K119">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>62857142.857142851</v>
       </c>
       <c r="L119">
+        <f t="shared" si="13"/>
+        <v>68571428.571428567</v>
+      </c>
+      <c r="M119">
         <f t="shared" si="11"/>
-        <v>68571428.571428567</v>
-      </c>
-      <c r="M119">
-        <f t="shared" si="12"/>
-        <v>0.69220170296227668</v>
-      </c>
-      <c r="N119">
-        <f t="shared" si="13"/>
-        <v>0.99863596415857192</v>
-      </c>
-      <c r="O119">
-        <f t="shared" si="9"/>
         <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>39</v>
       </c>
@@ -7492,35 +6575,27 @@
         <v>20</v>
       </c>
       <c r="I120">
-        <f>(H120/(G120+H120))</f>
+        <f t="shared" si="14"/>
         <v>0.51282051282051277</v>
       </c>
       <c r="J120">
-        <f>(G120/(G120+H120))</f>
+        <f t="shared" si="15"/>
         <v>0.48717948717948717</v>
       </c>
       <c r="K120">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>54285714.285714284</v>
       </c>
       <c r="L120">
+        <f t="shared" si="13"/>
+        <v>57142857.142857134</v>
+      </c>
+      <c r="M120">
         <f t="shared" si="11"/>
-        <v>57142857.142857134</v>
-      </c>
-      <c r="M120">
-        <f t="shared" si="12"/>
-        <v>0.69281841343112882</v>
-      </c>
-      <c r="N120">
-        <f t="shared" si="13"/>
-        <v>0.99952568929364916</v>
-      </c>
-      <c r="O120">
-        <f t="shared" si="9"/>
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>118</v>
       </c>
@@ -7546,35 +6621,27 @@
         <v>26</v>
       </c>
       <c r="I121">
-        <f>(H121/(G121+H121))</f>
+        <f t="shared" si="14"/>
         <v>0.50980392156862742</v>
       </c>
       <c r="J121">
-        <f>(G121/(G121+H121))</f>
+        <f t="shared" si="15"/>
         <v>0.49019607843137253</v>
       </c>
       <c r="K121">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>71428571.428571418</v>
       </c>
       <c r="L121">
+        <f t="shared" si="13"/>
+        <v>74285714.285714284</v>
+      </c>
+      <c r="M121">
         <f t="shared" si="11"/>
-        <v>74285714.285714284</v>
-      </c>
-      <c r="M121">
-        <f t="shared" si="12"/>
-        <v>0.69295493448386392</v>
-      </c>
-      <c r="N121">
-        <f t="shared" si="13"/>
-        <v>0.99972264753940709</v>
-      </c>
-      <c r="O121">
-        <f t="shared" si="9"/>
         <v>51</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>75</v>
       </c>
@@ -7600,35 +6667,27 @@
         <v>28</v>
       </c>
       <c r="I122">
-        <f>(H122/(G122+H122))</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="J122">
-        <f>(G122/(G122+H122))</f>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="K122">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>79999999.999999985</v>
       </c>
       <c r="L122">
+        <f t="shared" si="13"/>
+        <v>79999999.999999985</v>
+      </c>
+      <c r="M122">
         <f t="shared" si="11"/>
-        <v>79999999.999999985</v>
-      </c>
-      <c r="M122">
-        <f t="shared" si="12"/>
-        <v>0.69314718055994529</v>
-      </c>
-      <c r="N122">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="O122">
-        <f t="shared" si="9"/>
         <v>56</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>103</v>
       </c>
@@ -7654,35 +6713,27 @@
         <v>21</v>
       </c>
       <c r="I123">
-        <f>(H123/(G123+H123))</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="J123">
-        <f>(G123/(G123+H123))</f>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="K123">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>59999999.999999993</v>
       </c>
       <c r="L123">
+        <f t="shared" si="13"/>
+        <v>59999999.999999993</v>
+      </c>
+      <c r="M123">
         <f t="shared" si="11"/>
-        <v>59999999.999999993</v>
-      </c>
-      <c r="M123">
-        <f t="shared" si="12"/>
-        <v>0.69314718055994529</v>
-      </c>
-      <c r="N123">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="O123">
-        <f t="shared" si="9"/>
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>59</v>
       </c>
@@ -7708,35 +6759,27 @@
         <v>20</v>
       </c>
       <c r="I124">
-        <f>(H124/(G124+H124))</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="J124">
-        <f>(G124/(G124+H124))</f>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="K124">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>57142857.142857134</v>
       </c>
       <c r="L124">
+        <f t="shared" si="13"/>
+        <v>57142857.142857134</v>
+      </c>
+      <c r="M124">
         <f t="shared" si="11"/>
-        <v>57142857.142857134</v>
-      </c>
-      <c r="M124">
-        <f t="shared" si="12"/>
-        <v>0.69314718055994529</v>
-      </c>
-      <c r="N124">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="O124">
-        <f t="shared" si="9"/>
         <v>40</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>100</v>
       </c>
@@ -7762,35 +6805,27 @@
         <v>19</v>
       </c>
       <c r="I125">
-        <f>(H125/(G125+H125))</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="J125">
-        <f>(G125/(G125+H125))</f>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="K125">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>54285714.285714284</v>
       </c>
       <c r="L125">
+        <f t="shared" si="13"/>
+        <v>54285714.285714284</v>
+      </c>
+      <c r="M125">
         <f t="shared" si="11"/>
-        <v>54285714.285714284</v>
-      </c>
-      <c r="M125">
-        <f t="shared" si="12"/>
-        <v>0.69314718055994529</v>
-      </c>
-      <c r="N125">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="O125">
-        <f t="shared" si="9"/>
         <v>38</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>69</v>
       </c>
@@ -7816,35 +6851,27 @@
         <v>18</v>
       </c>
       <c r="I126">
-        <f>(H126/(G126+H126))</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="J126">
-        <f>(G126/(G126+H126))</f>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="K126">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>51428571.428571425</v>
       </c>
       <c r="L126">
+        <f t="shared" si="13"/>
+        <v>51428571.428571425</v>
+      </c>
+      <c r="M126">
         <f t="shared" si="11"/>
-        <v>51428571.428571425</v>
-      </c>
-      <c r="M126">
-        <f t="shared" si="12"/>
-        <v>0.69314718055994529</v>
-      </c>
-      <c r="N126">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="O126">
-        <f t="shared" si="9"/>
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>62</v>
       </c>
@@ -7870,35 +6897,27 @@
         <v>12</v>
       </c>
       <c r="I127">
-        <f>(H127/(G127+H127))</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="J127">
-        <f>(G127/(G127+H127))</f>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="K127">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>34285714.285714284</v>
       </c>
       <c r="L127">
+        <f t="shared" si="13"/>
+        <v>34285714.285714284</v>
+      </c>
+      <c r="M127">
         <f t="shared" si="11"/>
-        <v>34285714.285714284</v>
-      </c>
-      <c r="M127">
-        <f t="shared" si="12"/>
-        <v>0.69314718055994529</v>
-      </c>
-      <c r="N127">
-        <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="O127">
-        <f t="shared" si="9"/>
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>158</v>
       </c>
@@ -7924,35 +6943,27 @@
         <v>27</v>
       </c>
       <c r="I128">
-        <f>(H128/(G128+H128))</f>
+        <f t="shared" si="14"/>
         <v>0.49090909090909091</v>
       </c>
       <c r="J128">
-        <f>(G128/(G128+H128))</f>
+        <f t="shared" si="15"/>
         <v>0.50909090909090904</v>
       </c>
       <c r="K128">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>79999999.999999985</v>
       </c>
       <c r="L128">
+        <f t="shared" si="13"/>
+        <v>77142857.142857134</v>
+      </c>
+      <c r="M128">
         <f t="shared" si="11"/>
-        <v>77142857.142857134</v>
-      </c>
-      <c r="M128">
-        <f t="shared" si="12"/>
-        <v>0.69298188219569656</v>
-      </c>
-      <c r="N128">
-        <f t="shared" si="13"/>
-        <v>0.99976152486963132</v>
-      </c>
-      <c r="O128">
-        <f t="shared" si="9"/>
         <v>55</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>124</v>
       </c>
@@ -7978,35 +6989,27 @@
         <v>24</v>
       </c>
       <c r="I129">
-        <f>(H129/(G129+H129))</f>
+        <f t="shared" si="14"/>
         <v>0.48979591836734693</v>
       </c>
       <c r="J129">
-        <f>(G129/(G129+H129))</f>
+        <f t="shared" si="15"/>
         <v>0.51020408163265307</v>
       </c>
       <c r="K129">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>71428571.428571418</v>
       </c>
       <c r="L129">
+        <f t="shared" si="13"/>
+        <v>68571428.571428567</v>
+      </c>
+      <c r="M129">
         <f t="shared" si="11"/>
-        <v>68571428.571428567</v>
-      </c>
-      <c r="M129">
-        <f t="shared" si="12"/>
-        <v>0.69293891953806108</v>
-      </c>
-      <c r="N129">
-        <f t="shared" si="13"/>
-        <v>0.99969954285651719</v>
-      </c>
-      <c r="O129">
-        <f t="shared" si="9"/>
         <v>49</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>64</v>
       </c>
@@ -8032,37 +7035,29 @@
         <v>23</v>
       </c>
       <c r="I130">
-        <f>(H130/(G130+H130))</f>
+        <f t="shared" ref="I130:I161" si="16">(H130/(G130+H130))</f>
         <v>0.47916666666666669</v>
       </c>
       <c r="J130">
-        <f>(G130/(G130+H130))</f>
+        <f t="shared" ref="J130:J161" si="17">(G130/(G130+H130))</f>
         <v>0.52083333333333337</v>
       </c>
       <c r="K130">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>71428571.428571418</v>
       </c>
       <c r="L130">
+        <f t="shared" si="13"/>
+        <v>65714285.714285709</v>
+      </c>
+      <c r="M130">
         <f t="shared" si="11"/>
-        <v>65714285.714285709</v>
-      </c>
-      <c r="M130">
-        <f t="shared" si="12"/>
-        <v>0.69227887365631879</v>
-      </c>
-      <c r="N130">
-        <f t="shared" si="13"/>
-        <v>0.99874729793616845</v>
-      </c>
-      <c r="O130">
-        <f t="shared" si="9"/>
         <v>48</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>8</v>
@@ -8086,35 +7081,27 @@
         <v>20</v>
       </c>
       <c r="I131">
-        <f>(H131/(G131+H131))</f>
+        <f t="shared" si="16"/>
         <v>0.47619047619047616</v>
       </c>
       <c r="J131">
-        <f>(G131/(G131+H131))</f>
+        <f t="shared" si="17"/>
         <v>0.52380952380952384</v>
       </c>
       <c r="K131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>62857142.857142851</v>
       </c>
       <c r="L131">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>57142857.142857134</v>
       </c>
       <c r="M131">
-        <f t="shared" si="12"/>
-        <v>0.6920129648318738</v>
-      </c>
-      <c r="N131">
-        <f t="shared" si="13"/>
-        <v>0.99836367259381298</v>
-      </c>
-      <c r="O131">
-        <f t="shared" ref="O131:O177" si="14">G131+H131</f>
+        <f t="shared" ref="M131:M177" si="18">G131+H131</f>
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>19</v>
       </c>
@@ -8140,37 +7127,29 @@
         <v>9</v>
       </c>
       <c r="I132">
-        <f>(H132/(G132+H132))</f>
+        <f t="shared" si="16"/>
         <v>0.47368421052631576</v>
       </c>
       <c r="J132">
-        <f>(G132/(G132+H132))</f>
+        <f t="shared" si="17"/>
         <v>0.52631578947368418</v>
       </c>
       <c r="K132">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>28571428.571428567</v>
       </c>
       <c r="L132">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>25714285.714285713</v>
       </c>
       <c r="M132">
-        <f t="shared" si="12"/>
-        <v>0.69176149885241778</v>
-      </c>
-      <c r="N132">
-        <f t="shared" si="13"/>
-        <v>0.99800088387229946</v>
-      </c>
-      <c r="O132">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>8</v>
@@ -8194,35 +7173,27 @@
         <v>26</v>
       </c>
       <c r="I133">
-        <f>(H133/(G133+H133))</f>
+        <f t="shared" si="16"/>
         <v>0.47272727272727272</v>
       </c>
       <c r="J133">
-        <f>(G133/(G133+H133))</f>
+        <f t="shared" si="17"/>
         <v>0.52727272727272723</v>
       </c>
       <c r="K133">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>82857142.857142851</v>
       </c>
       <c r="L133">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>74285714.285714284</v>
       </c>
       <c r="M133">
-        <f t="shared" si="12"/>
-        <v>0.69165883872035683</v>
-      </c>
-      <c r="N133">
-        <f t="shared" si="13"/>
-        <v>0.99785277660887817</v>
-      </c>
-      <c r="O133">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>55</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>136</v>
       </c>
@@ -8248,35 +7219,27 @@
         <v>16</v>
       </c>
       <c r="I134">
-        <f>(H134/(G134+H134))</f>
+        <f t="shared" si="16"/>
         <v>0.47058823529411764</v>
       </c>
       <c r="J134">
-        <f>(G134/(G134+H134))</f>
+        <f t="shared" si="17"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="K134">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>51428571.428571425</v>
       </c>
       <c r="L134">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>45714285.714285709</v>
       </c>
       <c r="M134">
-        <f t="shared" si="12"/>
-        <v>0.69141607761711832</v>
-      </c>
-      <c r="N134">
-        <f t="shared" si="13"/>
-        <v>0.99750254636911528</v>
-      </c>
-      <c r="O134">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>122</v>
       </c>
@@ -8302,35 +7265,27 @@
         <v>18</v>
       </c>
       <c r="I135">
-        <f>(H135/(G135+H135))</f>
+        <f t="shared" si="16"/>
         <v>0.46153846153846156</v>
       </c>
       <c r="J135">
-        <f>(G135/(G135+H135))</f>
+        <f t="shared" si="17"/>
         <v>0.53846153846153844</v>
       </c>
       <c r="K135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>59999999.999999993</v>
       </c>
       <c r="L135">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>51428571.428571425</v>
       </c>
       <c r="M135">
-        <f t="shared" si="12"/>
-        <v>0.69018567601880421</v>
-      </c>
-      <c r="N135">
-        <f t="shared" si="13"/>
-        <v>0.99572745208492563</v>
-      </c>
-      <c r="O135">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>49</v>
       </c>
@@ -8356,35 +7311,27 @@
         <v>21</v>
       </c>
       <c r="I136">
-        <f>(H136/(G136+H136))</f>
+        <f t="shared" si="16"/>
         <v>0.45652173913043476</v>
       </c>
       <c r="J136">
-        <f>(G136/(G136+H136))</f>
+        <f t="shared" si="17"/>
         <v>0.54347826086956519</v>
       </c>
       <c r="K136">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>71428571.428571418</v>
       </c>
       <c r="L136">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>59999999.999999993</v>
       </c>
       <c r="M136">
-        <f t="shared" si="12"/>
-        <v>0.68936168314351021</v>
-      </c>
-      <c r="N136">
-        <f t="shared" si="13"/>
-        <v>0.99453868165001114</v>
-      </c>
-      <c r="O136">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>57</v>
       </c>
@@ -8410,35 +7357,27 @@
         <v>14</v>
       </c>
       <c r="I137">
-        <f>(H137/(G137+H137))</f>
+        <f t="shared" si="16"/>
         <v>0.45161290322580644</v>
       </c>
       <c r="J137">
-        <f>(G137/(G137+H137))</f>
+        <f t="shared" si="17"/>
         <v>0.54838709677419351</v>
       </c>
       <c r="K137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>48571428.571428567</v>
       </c>
       <c r="L137">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>39999999.999999993</v>
       </c>
       <c r="M137">
-        <f t="shared" si="12"/>
-        <v>0.68845722178936253</v>
-      </c>
-      <c r="N137">
-        <f t="shared" si="13"/>
-        <v>0.99323381973970659</v>
-      </c>
-      <c r="O137">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>9</v>
       </c>
@@ -8464,35 +7403,27 @@
         <v>23</v>
       </c>
       <c r="I138">
-        <f>(H138/(G138+H138))</f>
+        <f t="shared" si="16"/>
         <v>0.45098039215686275</v>
       </c>
       <c r="J138">
-        <f>(G138/(G138+H138))</f>
+        <f t="shared" si="17"/>
         <v>0.5490196078431373</v>
       </c>
       <c r="K138">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>79999999.999999985</v>
       </c>
       <c r="L138">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>65714285.714285709</v>
       </c>
       <c r="M138">
-        <f t="shared" si="12"/>
-        <v>0.68833360818949929</v>
-      </c>
-      <c r="N138">
-        <f t="shared" si="13"/>
-        <v>0.99305548301219748</v>
-      </c>
-      <c r="O138">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>51</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>127</v>
       </c>
@@ -8518,35 +7449,27 @@
         <v>22</v>
       </c>
       <c r="I139">
-        <f>(H139/(G139+H139))</f>
+        <f t="shared" si="16"/>
         <v>0.44897959183673469</v>
       </c>
       <c r="J139">
-        <f>(G139/(G139+H139))</f>
+        <f t="shared" si="17"/>
         <v>0.55102040816326525</v>
       </c>
       <c r="K139">
-        <f t="shared" ref="K139:K177" si="15">(G139*10^(F139))/0.035</f>
+        <f t="shared" ref="K139:K177" si="19">(G139*10^(F139))/0.035</f>
         <v>77142857.142857134</v>
       </c>
       <c r="L139">
-        <f t="shared" ref="L139:L177" si="16">(H139*10^(F139))/0.035</f>
+        <f t="shared" ref="L139:L177" si="20">(H139*10^(F139))/0.035</f>
         <v>62857142.857142851</v>
       </c>
       <c r="M139">
-        <f t="shared" ref="M139:M177" si="17">((I139*LN(I139))+(J139*LN(J139)))*-1</f>
-        <v>0.68793194390654833</v>
-      </c>
-      <c r="N139">
-        <f t="shared" ref="N139:N177" si="18">M139/LN(2)</f>
-        <v>0.99247600394308189</v>
-      </c>
-      <c r="O139">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>49</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>116</v>
       </c>
@@ -8572,35 +7495,27 @@
         <v>17</v>
       </c>
       <c r="I140">
-        <f>(H140/(G140+H140))</f>
+        <f t="shared" si="16"/>
         <v>0.44736842105263158</v>
       </c>
       <c r="J140">
-        <f>(G140/(G140+H140))</f>
+        <f t="shared" si="17"/>
         <v>0.55263157894736847</v>
       </c>
       <c r="K140">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>59999999.999999993</v>
       </c>
       <c r="L140">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>48571428.571428567</v>
       </c>
       <c r="M140">
-        <f t="shared" si="17"/>
-        <v>0.68759673759092377</v>
-      </c>
-      <c r="N140">
         <f t="shared" si="18"/>
-        <v>0.99199240345385564</v>
-      </c>
-      <c r="O140">
-        <f t="shared" si="14"/>
         <v>38</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>110</v>
       </c>
@@ -8626,35 +7541,27 @@
         <v>17</v>
       </c>
       <c r="I141">
-        <f>(H141/(G141+H141))</f>
+        <f t="shared" si="16"/>
         <v>0.44736842105263158</v>
       </c>
       <c r="J141">
-        <f>(G141/(G141+H141))</f>
+        <f t="shared" si="17"/>
         <v>0.55263157894736847</v>
       </c>
       <c r="K141">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>59999999.999999993</v>
       </c>
       <c r="L141">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>48571428.571428567</v>
       </c>
       <c r="M141">
-        <f t="shared" si="17"/>
-        <v>0.68759673759092377</v>
-      </c>
-      <c r="N141">
         <f t="shared" si="18"/>
-        <v>0.99199240345385564</v>
-      </c>
-      <c r="O141">
-        <f t="shared" si="14"/>
         <v>38</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>106</v>
       </c>
@@ -8680,35 +7587,27 @@
         <v>15</v>
       </c>
       <c r="I142">
-        <f>(H142/(G142+H142))</f>
+        <f t="shared" si="16"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="J142">
-        <f>(G142/(G142+H142))</f>
+        <f t="shared" si="17"/>
         <v>0.55882352941176472</v>
       </c>
       <c r="K142">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>54285714.285714284</v>
       </c>
       <c r="L142">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>42857142.857142851</v>
       </c>
       <c r="M142">
-        <f t="shared" si="17"/>
-        <v>0.68621071224276364</v>
-      </c>
-      <c r="N142">
         <f t="shared" si="18"/>
-        <v>0.98999279155751863</v>
-      </c>
-      <c r="O142">
-        <f t="shared" si="14"/>
         <v>34</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>128</v>
       </c>
@@ -8734,35 +7633,27 @@
         <v>18</v>
       </c>
       <c r="I143">
-        <f>(H143/(G143+H143))</f>
+        <f t="shared" si="16"/>
         <v>0.43902439024390244</v>
       </c>
       <c r="J143">
-        <f>(G143/(G143+H143))</f>
+        <f t="shared" si="17"/>
         <v>0.56097560975609762</v>
       </c>
       <c r="K143">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>65714285.714285709</v>
       </c>
       <c r="L143">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>51428571.428571425</v>
       </c>
       <c r="M143">
-        <f t="shared" si="17"/>
-        <v>0.68569258844817593</v>
-      </c>
-      <c r="N143">
         <f t="shared" si="18"/>
-        <v>0.98924529692850038</v>
-      </c>
-      <c r="O143">
-        <f t="shared" si="14"/>
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>129</v>
       </c>
@@ -8788,35 +7679,27 @@
         <v>19</v>
       </c>
       <c r="I144">
-        <f>(H144/(G144+H144))</f>
+        <f t="shared" si="16"/>
         <v>0.42222222222222222</v>
       </c>
       <c r="J144">
-        <f>(G144/(G144+H144))</f>
+        <f t="shared" si="17"/>
         <v>0.57777777777777772</v>
       </c>
       <c r="K144">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>74285714.285714284</v>
       </c>
       <c r="L144">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>54285714.285714284</v>
       </c>
       <c r="M144">
-        <f t="shared" si="17"/>
-        <v>0.68099914326541078</v>
-      </c>
-      <c r="N144">
         <f t="shared" si="18"/>
-        <v>0.9824740868386409</v>
-      </c>
-      <c r="O144">
-        <f t="shared" si="14"/>
         <v>45</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>109</v>
       </c>
@@ -8842,35 +7725,27 @@
         <v>24</v>
       </c>
       <c r="I145">
-        <f>(H145/(G145+H145))</f>
+        <f t="shared" si="16"/>
         <v>0.41379310344827586</v>
       </c>
       <c r="J145">
-        <f>(G145/(G145+H145))</f>
+        <f t="shared" si="17"/>
         <v>0.58620689655172409</v>
       </c>
       <c r="K145">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>97142857.142857134</v>
       </c>
       <c r="L145">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>68571428.571428567</v>
       </c>
       <c r="M145">
-        <f t="shared" si="17"/>
-        <v>0.6782093939033127</v>
-      </c>
-      <c r="N145">
         <f t="shared" si="18"/>
-        <v>0.97844932926861883</v>
-      </c>
-      <c r="O145">
-        <f t="shared" si="14"/>
         <v>58</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>108</v>
       </c>
@@ -8896,35 +7771,27 @@
         <v>18</v>
       </c>
       <c r="I146">
-        <f>(H146/(G146+H146))</f>
+        <f t="shared" si="16"/>
         <v>0.40909090909090912</v>
       </c>
       <c r="J146">
-        <f>(G146/(G146+H146))</f>
+        <f t="shared" si="17"/>
         <v>0.59090909090909094</v>
       </c>
       <c r="K146">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>74285714.285714284</v>
       </c>
       <c r="L146">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>51428571.428571425</v>
       </c>
       <c r="M146">
-        <f t="shared" si="17"/>
-        <v>0.67652596049349989</v>
-      </c>
-      <c r="N146">
         <f t="shared" si="18"/>
-        <v>0.97602064823661505</v>
-      </c>
-      <c r="O146">
-        <f t="shared" si="14"/>
         <v>44</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>102</v>
       </c>
@@ -8950,35 +7817,27 @@
         <v>13</v>
       </c>
       <c r="I147">
-        <f>(H147/(G147+H147))</f>
+        <f t="shared" si="16"/>
         <v>0.40625</v>
       </c>
       <c r="J147">
-        <f>(G147/(G147+H147))</f>
+        <f t="shared" si="17"/>
         <v>0.59375</v>
       </c>
       <c r="K147">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>54285714.285714284</v>
       </c>
       <c r="L147">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>37142857.142857142</v>
       </c>
       <c r="M147">
-        <f t="shared" si="17"/>
-        <v>0.67546458245090313</v>
-      </c>
-      <c r="N147">
         <f t="shared" si="18"/>
-        <v>0.97448940339805235</v>
-      </c>
-      <c r="O147">
-        <f t="shared" si="14"/>
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>99</v>
       </c>
@@ -9004,35 +7863,27 @@
         <v>17</v>
       </c>
       <c r="I148">
-        <f>(H148/(G148+H148))</f>
+        <f t="shared" si="16"/>
         <v>0.40476190476190477</v>
       </c>
       <c r="J148">
-        <f>(G148/(G148+H148))</f>
+        <f t="shared" si="17"/>
         <v>0.59523809523809523</v>
       </c>
       <c r="K148">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>71428571.428571418</v>
       </c>
       <c r="L148">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>48571428.571428567</v>
       </c>
       <c r="M148">
-        <f t="shared" si="17"/>
-        <v>0.67489527374382807</v>
-      </c>
-      <c r="N148">
         <f t="shared" si="18"/>
-        <v>0.97366806454962018</v>
-      </c>
-      <c r="O148">
-        <f t="shared" si="14"/>
         <v>42</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>60</v>
       </c>
@@ -9058,35 +7909,27 @@
         <v>17</v>
       </c>
       <c r="I149">
-        <f>(H149/(G149+H149))</f>
+        <f t="shared" si="16"/>
         <v>0.40476190476190477</v>
       </c>
       <c r="J149">
-        <f>(G149/(G149+H149))</f>
+        <f t="shared" si="17"/>
         <v>0.59523809523809523</v>
       </c>
       <c r="K149">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>71428571.428571418</v>
       </c>
       <c r="L149">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>48571428.571428567</v>
       </c>
       <c r="M149">
-        <f t="shared" si="17"/>
-        <v>0.67489527374382807</v>
-      </c>
-      <c r="N149">
         <f t="shared" si="18"/>
-        <v>0.97366806454962018</v>
-      </c>
-      <c r="O149">
-        <f t="shared" si="14"/>
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>113</v>
       </c>
@@ -9112,35 +7955,27 @@
         <v>14</v>
       </c>
       <c r="I150">
-        <f>(H150/(G150+H150))</f>
+        <f t="shared" si="16"/>
         <v>0.4</v>
       </c>
       <c r="J150">
-        <f>(G150/(G150+H150))</f>
+        <f t="shared" si="17"/>
         <v>0.6</v>
       </c>
       <c r="K150">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>59999999.999999993</v>
       </c>
       <c r="L150">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>39999999.999999993</v>
       </c>
       <c r="M150">
-        <f t="shared" si="17"/>
-        <v>0.67301166700925652</v>
-      </c>
-      <c r="N150">
         <f t="shared" si="18"/>
-        <v>0.9709505944546688</v>
-      </c>
-      <c r="O150">
-        <f t="shared" si="14"/>
         <v>35</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>18</v>
       </c>
@@ -9166,37 +8001,29 @@
         <v>13</v>
       </c>
       <c r="I151">
-        <f>(H151/(G151+H151))</f>
+        <f t="shared" si="16"/>
         <v>0.39393939393939392</v>
       </c>
       <c r="J151">
-        <f>(G151/(G151+H151))</f>
+        <f t="shared" si="17"/>
         <v>0.60606060606060608</v>
       </c>
       <c r="K151">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>57142857.142857134</v>
       </c>
       <c r="L151">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>37142857.142857142</v>
       </c>
       <c r="M151">
-        <f t="shared" si="17"/>
-        <v>0.67047764879739546</v>
-      </c>
-      <c r="N151">
         <f t="shared" si="18"/>
-        <v>0.96729477894689453</v>
-      </c>
-      <c r="O151">
-        <f t="shared" si="14"/>
         <v>33</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>8</v>
@@ -9220,35 +8047,27 @@
         <v>11</v>
       </c>
       <c r="I152">
-        <f>(H152/(G152+H152))</f>
+        <f t="shared" si="16"/>
         <v>0.39285714285714285</v>
       </c>
       <c r="J152">
-        <f>(G152/(G152+H152))</f>
+        <f t="shared" si="17"/>
         <v>0.6071428571428571</v>
       </c>
       <c r="K152">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>48571428.571428567</v>
       </c>
       <c r="L152">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>31428571.428571425</v>
       </c>
       <c r="M152">
-        <f t="shared" si="17"/>
-        <v>0.67000897982742713</v>
-      </c>
-      <c r="N152">
         <f t="shared" si="18"/>
-        <v>0.96661863254810265</v>
-      </c>
-      <c r="O152">
-        <f t="shared" si="14"/>
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>22</v>
       </c>
@@ -9274,35 +8093,27 @@
         <v>13</v>
       </c>
       <c r="I153">
-        <f>(H153/(G153+H153))</f>
+        <f t="shared" si="16"/>
         <v>0.38235294117647056</v>
       </c>
       <c r="J153">
-        <f>(G153/(G153+H153))</f>
+        <f t="shared" si="17"/>
         <v>0.61764705882352944</v>
       </c>
       <c r="K153">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>59999999.999999993</v>
       </c>
       <c r="L153">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>37142857.142857142</v>
       </c>
       <c r="M153">
-        <f t="shared" si="17"/>
-        <v>0.6652042646399301</v>
-      </c>
-      <c r="N153">
         <f t="shared" si="18"/>
-        <v>0.95968689377421679</v>
-      </c>
-      <c r="O153">
-        <f t="shared" si="14"/>
         <v>34</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>117</v>
       </c>
@@ -9328,35 +8139,27 @@
         <v>12</v>
       </c>
       <c r="I154">
-        <f>(H154/(G154+H154))</f>
+        <f t="shared" si="16"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="J154">
-        <f>(G154/(G154+H154))</f>
+        <f t="shared" si="17"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="K154">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>59999999.999999993</v>
       </c>
       <c r="L154">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>34285714.285714284</v>
       </c>
       <c r="M154">
-        <f t="shared" si="17"/>
-        <v>0.65548177390139273</v>
-      </c>
-      <c r="N154">
         <f t="shared" si="18"/>
-        <v>0.9456603046006401</v>
-      </c>
-      <c r="O154">
-        <f t="shared" si="14"/>
         <v>33</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>65</v>
       </c>
@@ -9382,35 +8185,27 @@
         <v>20</v>
       </c>
       <c r="I155">
-        <f>(H155/(G155+H155))</f>
+        <f t="shared" si="16"/>
         <v>0.35087719298245612</v>
       </c>
       <c r="J155">
-        <f>(G155/(G155+H155))</f>
+        <f t="shared" si="17"/>
         <v>0.64912280701754388</v>
       </c>
       <c r="K155">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>105714285.7142857</v>
       </c>
       <c r="L155">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>57142857.142857134</v>
       </c>
       <c r="M155">
-        <f t="shared" si="17"/>
-        <v>0.6479879653974252</v>
-      </c>
-      <c r="N155">
         <f t="shared" si="18"/>
-        <v>0.93484902423459459</v>
-      </c>
-      <c r="O155">
-        <f t="shared" si="14"/>
         <v>57</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>56</v>
       </c>
@@ -9436,35 +8231,27 @@
         <v>15</v>
       </c>
       <c r="I156">
-        <f>(H156/(G156+H156))</f>
+        <f t="shared" si="16"/>
         <v>0.34883720930232559</v>
       </c>
       <c r="J156">
-        <f>(G156/(G156+H156))</f>
+        <f t="shared" si="17"/>
         <v>0.65116279069767447</v>
       </c>
       <c r="K156">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>79999999.999999985</v>
       </c>
       <c r="L156">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>42857142.857142851</v>
       </c>
       <c r="M156">
-        <f t="shared" si="17"/>
-        <v>0.64672385286940282</v>
-      </c>
-      <c r="N156">
         <f t="shared" si="18"/>
-        <v>0.93302529535929113</v>
-      </c>
-      <c r="O156">
-        <f t="shared" si="14"/>
         <v>43</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>121</v>
       </c>
@@ -9490,35 +8277,27 @@
         <v>17</v>
       </c>
       <c r="I157">
-        <f>(H157/(G157+H157))</f>
+        <f t="shared" si="16"/>
         <v>0.34693877551020408</v>
       </c>
       <c r="J157">
-        <f>(G157/(G157+H157))</f>
+        <f t="shared" si="17"/>
         <v>0.65306122448979587</v>
       </c>
       <c r="K157">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>91428571.428571418</v>
       </c>
       <c r="L157">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>48571428.571428567</v>
       </c>
       <c r="M157">
-        <f t="shared" si="17"/>
-        <v>0.64553099732395469</v>
-      </c>
-      <c r="N157">
         <f t="shared" si="18"/>
-        <v>0.93130436857937615</v>
-      </c>
-      <c r="O157">
-        <f t="shared" si="14"/>
         <v>49</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>66</v>
       </c>
@@ -9544,35 +8323,27 @@
         <v>11</v>
       </c>
       <c r="I158">
-        <f>(H158/(G158+H158))</f>
+        <f t="shared" si="16"/>
         <v>0.34375</v>
       </c>
       <c r="J158">
-        <f>(G158/(G158+H158))</f>
+        <f t="shared" si="17"/>
         <v>0.65625</v>
       </c>
       <c r="K158">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>59999999.999999993</v>
       </c>
       <c r="L158">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>31428571.428571425</v>
       </c>
       <c r="M158">
-        <f t="shared" si="17"/>
-        <v>0.6434915530192904</v>
-      </c>
-      <c r="N158">
         <f t="shared" si="18"/>
-        <v>0.92836207239486779</v>
-      </c>
-      <c r="O158">
-        <f t="shared" si="14"/>
         <v>32</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>101</v>
       </c>
@@ -9598,35 +8369,27 @@
         <v>12</v>
       </c>
       <c r="I159">
-        <f>(H159/(G159+H159))</f>
+        <f t="shared" si="16"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="J159">
-        <f>(G159/(G159+H159))</f>
+        <f t="shared" si="17"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="K159">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>65714285.714285709</v>
       </c>
       <c r="L159">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>34285714.285714284</v>
       </c>
       <c r="M159">
-        <f t="shared" si="17"/>
-        <v>0.64291243966580092</v>
-      </c>
-      <c r="N159">
         <f t="shared" si="18"/>
-        <v>0.9275265884316759</v>
-      </c>
-      <c r="O159">
-        <f t="shared" si="14"/>
         <v>35</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>114</v>
       </c>
@@ -9652,37 +8415,29 @@
         <v>20</v>
       </c>
       <c r="I160">
-        <f>(H160/(G160+H160))</f>
+        <f t="shared" si="16"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="J160">
-        <f>(G160/(G160+H160))</f>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="K160">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>114285714.28571427</v>
       </c>
       <c r="L160">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>57142857.142857134</v>
       </c>
       <c r="M160">
-        <f t="shared" si="17"/>
-        <v>0.63651416829481278</v>
-      </c>
-      <c r="N160">
         <f t="shared" si="18"/>
-        <v>0.91829583405448945</v>
-      </c>
-      <c r="O160">
-        <f t="shared" si="14"/>
         <v>60</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>8</v>
@@ -9706,35 +8461,27 @@
         <v>13</v>
       </c>
       <c r="I161">
-        <f>(H161/(G161+H161))</f>
+        <f t="shared" si="16"/>
         <v>0.32500000000000001</v>
       </c>
       <c r="J161">
-        <f>(G161/(G161+H161))</f>
+        <f t="shared" si="17"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="K161">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>77142857.142857134</v>
       </c>
       <c r="L161">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>37142857.142857142</v>
       </c>
       <c r="M161">
-        <f t="shared" si="17"/>
-        <v>0.63058102838601471</v>
-      </c>
-      <c r="N161">
         <f t="shared" si="18"/>
-        <v>0.90973612253116609</v>
-      </c>
-      <c r="O161">
-        <f t="shared" si="14"/>
         <v>40</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>98</v>
       </c>
@@ -9760,35 +8507,27 @@
         <v>10</v>
       </c>
       <c r="I162">
-        <f>(H162/(G162+H162))</f>
+        <f t="shared" ref="I162:I193" si="21">(H162/(G162+H162))</f>
         <v>0.3125</v>
       </c>
       <c r="J162">
-        <f>(G162/(G162+H162))</f>
+        <f t="shared" ref="J162:J177" si="22">(G162/(G162+H162))</f>
         <v>0.6875</v>
       </c>
       <c r="K162">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>62857142.857142851</v>
       </c>
       <c r="L162">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>28571428.571428567</v>
       </c>
       <c r="M162">
-        <f t="shared" si="17"/>
-        <v>0.62108637455524507</v>
-      </c>
-      <c r="N162">
         <f t="shared" si="18"/>
-        <v>0.89603823253455739</v>
-      </c>
-      <c r="O162">
-        <f t="shared" si="14"/>
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>48</v>
       </c>
@@ -9814,35 +8553,27 @@
         <v>7</v>
       </c>
       <c r="I163">
-        <f>(H163/(G163+H163))</f>
+        <f t="shared" si="21"/>
         <v>0.30434782608695654</v>
       </c>
       <c r="J163">
-        <f>(G163/(G163+H163))</f>
+        <f t="shared" si="22"/>
         <v>0.69565217391304346</v>
       </c>
       <c r="K163">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>45714285.714285709</v>
       </c>
       <c r="L163">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>19999999.999999996</v>
       </c>
       <c r="M163">
-        <f t="shared" si="17"/>
-        <v>0.61450332031072818</v>
-      </c>
-      <c r="N163">
         <f t="shared" si="18"/>
-        <v>0.88654089282208981</v>
-      </c>
-      <c r="O163">
-        <f t="shared" si="14"/>
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>126</v>
       </c>
@@ -9868,37 +8599,29 @@
         <v>11</v>
       </c>
       <c r="I164">
-        <f>(H164/(G164+H164))</f>
+        <f t="shared" si="21"/>
         <v>0.27500000000000002</v>
       </c>
       <c r="J164">
-        <f>(G164/(G164+H164))</f>
+        <f t="shared" si="22"/>
         <v>0.72499999999999998</v>
       </c>
       <c r="K164">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>82857142.857142851</v>
       </c>
       <c r="L164">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>31428571.428571425</v>
       </c>
       <c r="M164">
-        <f t="shared" si="17"/>
-        <v>0.58816877735419071</v>
-      </c>
-      <c r="N164">
         <f t="shared" si="18"/>
-        <v>0.84854817829461582</v>
-      </c>
-      <c r="O164">
-        <f t="shared" si="14"/>
         <v>40</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>8</v>
@@ -9922,35 +8645,27 @@
         <v>4</v>
       </c>
       <c r="I165">
-        <f>(H165/(G165+H165))</f>
+        <f t="shared" si="21"/>
         <v>0.25</v>
       </c>
       <c r="J165">
-        <f>(G165/(G165+H165))</f>
+        <f t="shared" si="22"/>
         <v>0.75</v>
       </c>
       <c r="K165">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>34285714.285714284</v>
       </c>
       <c r="L165">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11428571.428571427</v>
       </c>
       <c r="M165">
-        <f t="shared" si="17"/>
-        <v>0.56233514461880829</v>
-      </c>
-      <c r="N165">
         <f t="shared" si="18"/>
-        <v>0.81127812445913283</v>
-      </c>
-      <c r="O165">
-        <f t="shared" si="14"/>
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>43</v>
       </c>
@@ -9976,35 +8691,27 @@
         <v>182</v>
       </c>
       <c r="I166" t="e">
-        <f>(H166/(G166+H166))</f>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="J166" t="e">
-        <f>(G166/(G166+H166))</f>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="K166" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="L166" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="M166" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N166" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O166" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>85</v>
       </c>
@@ -10030,35 +8737,27 @@
         <v>182</v>
       </c>
       <c r="I167" t="e">
-        <f>(H167/(G167+H167))</f>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="J167" t="e">
-        <f>(G167/(G167+H167))</f>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="K167" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="L167" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="M167" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N167" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O167" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>88</v>
       </c>
@@ -10084,35 +8783,27 @@
         <v>182</v>
       </c>
       <c r="I168" t="e">
-        <f>(H168/(G168+H168))</f>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="J168" t="e">
-        <f>(G168/(G168+H168))</f>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="K168" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="L168" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="M168" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N168" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O168" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>93</v>
       </c>
@@ -10138,35 +8829,27 @@
         <v>182</v>
       </c>
       <c r="I169" t="e">
-        <f>(H169/(G169+H169))</f>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="J169" t="e">
-        <f>(G169/(G169+H169))</f>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="K169" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="L169" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="M169" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N169" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O169" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>153</v>
       </c>
@@ -10192,35 +8875,27 @@
         <v>182</v>
       </c>
       <c r="I170" t="e">
-        <f>(H170/(G170+H170))</f>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="J170" t="e">
-        <f>(G170/(G170+H170))</f>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="K170" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="L170" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="M170" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N170" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O170" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>154</v>
       </c>
@@ -10246,35 +8921,27 @@
         <v>182</v>
       </c>
       <c r="I171" t="e">
-        <f>(H171/(G171+H171))</f>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="J171" t="e">
-        <f>(G171/(G171+H171))</f>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="K171" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="L171" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="M171" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N171" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O171" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>156</v>
       </c>
@@ -10300,35 +8967,27 @@
         <v>182</v>
       </c>
       <c r="I172" t="e">
-        <f>(H172/(G172+H172))</f>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="J172" t="e">
-        <f>(G172/(G172+H172))</f>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="K172" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="L172" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="M172" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N172" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O172" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>161</v>
       </c>
@@ -10354,35 +9013,27 @@
         <v>182</v>
       </c>
       <c r="I173" t="e">
-        <f>(H173/(G173+H173))</f>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="J173" t="e">
-        <f>(G173/(G173+H173))</f>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="K173" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="L173" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="M173" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N173" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O173" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>162</v>
       </c>
@@ -10408,35 +9059,27 @@
         <v>182</v>
       </c>
       <c r="I174" t="e">
-        <f>(H174/(G174+H174))</f>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="J174" t="e">
-        <f>(G174/(G174+H174))</f>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="K174" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="L174" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="M174" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N174" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O174" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>176</v>
       </c>
@@ -10462,35 +9105,27 @@
         <v>182</v>
       </c>
       <c r="I175" t="e">
-        <f>(H175/(G175+H175))</f>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="J175" t="e">
-        <f>(G175/(G175+H175))</f>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="K175" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="L175" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="M175" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N175" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O175" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>179</v>
       </c>
@@ -10516,35 +9151,27 @@
         <v>182</v>
       </c>
       <c r="I176" t="e">
-        <f>(H176/(G176+H176))</f>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="J176" t="e">
-        <f>(G176/(G176+H176))</f>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="K176" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="L176" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="M176" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N176" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O176" t="e">
-        <f t="shared" si="14"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>169</v>
       </c>
@@ -10570,31 +9197,23 @@
         <v>182</v>
       </c>
       <c r="I177" t="e">
-        <f>(H177/(G177+H177))</f>
+        <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
       <c r="J177" t="e">
-        <f>(G177/(G177+H177))</f>
+        <f t="shared" si="22"/>
         <v>#VALUE!</v>
       </c>
       <c r="K177" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="L177" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>#VALUE!</v>
       </c>
       <c r="M177" t="e">
-        <f t="shared" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N177" t="e">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O177" t="e">
-        <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -10612,14 +9231,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46043A8-F3B7-4AB8-8BBA-EA902A17D10D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>